--- a/ASHRAE901_ApartmentHighRise_STD2019_NewDelhiTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_NewDelhiTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2028.29</t>
+          <t>3281.05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1701.48</t>
+          <t>3140.42</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>346.48</t>
+          <t>450.84</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1565.60</t>
+          <t>2863.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1279.01</t>
+          <t>2322.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1275.74</t>
+          <t>2320.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1675.17</t>
+          <t>2378.91</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1673.99</t>
+          <t>2414.40</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2405.33</t>
+          <t>3795.48</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2003.07</t>
+          <t>3461.58</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2238.72</t>
+          <t>3327.89</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1717.01</t>
+          <t>3125.36</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1350.85</t>
+          <t>2413.16</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1347.42</t>
+          <t>2409.07</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1743.65</t>
+          <t>2486.90</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1742.66</t>
+          <t>2485.61</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2264.56</t>
+          <t>3623.55</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1885.98</t>
+          <t>3423.59</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2212.70</t>
+          <t>3209.49</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1692.92</t>
+          <t>3092.97</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1324.13</t>
+          <t>2378.30</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1320.26</t>
+          <t>2374.19</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1716.82</t>
+          <t>2461.49</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1714.23</t>
+          <t>2453.33</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2271.54</t>
+          <t>3619.50</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1877.74</t>
+          <t>3429.09</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2121.96</t>
+          <t>3208.29</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1687.82</t>
+          <t>3101.57</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1317.20</t>
+          <t>2378.77</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1313.49</t>
+          <t>2377.70</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1719.63</t>
+          <t>2469.35</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1716.37</t>
+          <t>2459.43</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2269.87</t>
+          <t>3619.01</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1129.35</t>
+          <t>3438.68</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2217.62</t>
+          <t>3219.54</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1683.37</t>
+          <t>3112.13</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1310.93</t>
+          <t>2383.42</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1308.17</t>
+          <t>2378.95</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1724.23</t>
+          <t>2422.46</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1720.99</t>
+          <t>2418.31</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2286.18</t>
+          <t>3615.21</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>635.69</t>
+          <t>3442.30</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2212.23</t>
+          <t>3233.95</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1341.68</t>
+          <t>3117.12</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1305.86</t>
+          <t>2375.10</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1303.55</t>
+          <t>2378.82</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1726.73</t>
+          <t>2429.94</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1724.22</t>
+          <t>2426.78</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2287.60</t>
+          <t>3673.49</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>327.62</t>
+          <t>3448.77</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2216.58</t>
+          <t>3249.44</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>971.95</t>
+          <t>3125.96</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1285.33</t>
+          <t>2378.58</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1300.15</t>
+          <t>2377.93</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1727.31</t>
+          <t>2438.28</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1726.55</t>
+          <t>2434.42</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2235.29</t>
+          <t>3679.73</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>327.56</t>
+          <t>3467.26</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2225.87</t>
+          <t>3268.48</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>698.26</t>
+          <t>3145.16</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1036.19</t>
+          <t>2392.98</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1045.40</t>
+          <t>2393.06</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1734.22</t>
+          <t>2449.43</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1734.17</t>
+          <t>2445.73</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2309.46</t>
+          <t>3795.51</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>436.88</t>
+          <t>3588.04</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2319.33</t>
+          <t>3397.23</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1018.57</t>
+          <t>3263.78</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1373.79</t>
+          <t>2513.08</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1371.07</t>
+          <t>2509.26</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1823.43</t>
+          <t>2546.24</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1822.08</t>
+          <t>2542.21</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3172.35</t>
+          <t>4495.63</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>1240.70</t>
+          <t>4236.02</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2828.95</t>
+          <t>4136.53</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>799.96</t>
+          <t>3861.29</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1673.73</t>
+          <t>3067.75</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1667.13</t>
+          <t>3060.72</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>3028.25</t>
+          <t>3252.92</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>3026.56</t>
+          <t>3259.46</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>135.51</t>
+          <t>3263.79</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>98.88</t>
+          <t>3248.68</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>208.15</t>
+          <t>502.06</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.04</t>
+          <t>2950.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>108.16</t>
+          <t>2395.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>108.15</t>
+          <t>2392.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>327.35</t>
+          <t>2403.73</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>339.03</t>
+          <t>2408.44</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>369.07</t>
+          <t>3725.55</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>343.75</t>
+          <t>3728.22</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>489.42</t>
+          <t>3304.91</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>101.50</t>
+          <t>3241.56</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>111.28</t>
+          <t>2476.88</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>111.37</t>
+          <t>2470.89</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>753.92</t>
+          <t>2487.58</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>740.05</t>
+          <t>2482.06</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>665.99</t>
+          <t>3547.33</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>101.97</t>
+          <t>3547.99</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>361.17</t>
+          <t>3240.55</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>102.29</t>
+          <t>3203.33</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>112.50</t>
+          <t>2454.03</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>112.52</t>
+          <t>2447.87</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>806.72</t>
+          <t>2423.22</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>768.91</t>
+          <t>2411.95</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>608.42</t>
+          <t>3566.63</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>101.85</t>
+          <t>3583.69</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>242.38</t>
+          <t>3240.21</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>102.15</t>
+          <t>3239.94</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>112.28</t>
+          <t>2465.86</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>112.30</t>
+          <t>2460.85</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>741.41</t>
+          <t>2426.44</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>697.92</t>
+          <t>2422.58</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>485.69</t>
+          <t>3590.75</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>342.95</t>
+          <t>3736.17</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>117.40</t>
+          <t>3250.57</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>101.75</t>
+          <t>3274.53</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>111.45</t>
+          <t>2487.49</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>111.57</t>
+          <t>2480.00</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>625.36</t>
+          <t>2436.61</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>581.35</t>
+          <t>2432.04</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>312.81</t>
+          <t>3608.56</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>343.58</t>
+          <t>3737.46</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>102.29</t>
+          <t>3253.63</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>101.32</t>
+          <t>3319.34</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>110.58</t>
+          <t>2523.90</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>110.72</t>
+          <t>2521.21</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>491.82</t>
+          <t>2425.27</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>455.90</t>
+          <t>2432.62</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>342.89</t>
+          <t>3746.24</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>344.06</t>
+          <t>3744.71</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>101.73</t>
+          <t>3259.32</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>100.87</t>
+          <t>3350.96</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>109.66</t>
+          <t>2548.06</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>109.77</t>
+          <t>2541.92</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>339.30</t>
+          <t>2426.95</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>321.23</t>
+          <t>2422.34</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>344.07</t>
+          <t>3768.49</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>344.29</t>
+          <t>3762.44</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>101.04</t>
+          <t>3270.94</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>100.32</t>
+          <t>3367.94</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>108.50</t>
+          <t>2568.03</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>108.59</t>
+          <t>2563.52</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>230.79</t>
+          <t>2434.79</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>251.81</t>
+          <t>2432.67</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>343.52</t>
+          <t>3924.43</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>342.54</t>
+          <t>3889.56</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>99.77</t>
+          <t>3365.82</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>99.25</t>
+          <t>3489.20</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>106.64</t>
+          <t>2692.73</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>106.69</t>
+          <t>2685.34</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>384.05</t>
+          <t>2542.26</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>354.31</t>
+          <t>2537.74</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>613.64</t>
+          <t>4862.20</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>340.12</t>
+          <t>4598.44</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>494.38</t>
+          <t>4274.30</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>340.12</t>
+          <t>4151.10</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>103.23</t>
+          <t>3188.01</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>103.25</t>
+          <t>3179.46</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1565.57</t>
+          <t>3243.79</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1564.90</t>
+          <t>3256.18</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2198.49</t>
+          <t>3350.54</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2043.05</t>
+          <t>3261.60</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>221.28</t>
+          <t>434.68</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1844.26</t>
+          <t>2999.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1429.99</t>
+          <t>2402.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1428.70</t>
+          <t>2398.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1551.96</t>
+          <t>2387.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1566.88</t>
+          <t>2375.80</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2634.35</t>
+          <t>3716.27</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2454.25</t>
+          <t>3672.44</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2394.28</t>
+          <t>3327.13</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2178.31</t>
+          <t>3265.41</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1614.35</t>
+          <t>2503.87</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1612.31</t>
+          <t>2499.09</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1700.94</t>
+          <t>2458.59</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1709.48</t>
+          <t>2455.18</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2646.73</t>
+          <t>3675.43</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2483.97</t>
+          <t>3590.15</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2358.85</t>
+          <t>3301.74</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2182.83</t>
+          <t>3231.31</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1595.39</t>
+          <t>2479.86</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1592.99</t>
+          <t>2474.52</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1688.35</t>
+          <t>2437.33</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1684.99</t>
+          <t>2428.37</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2652.29</t>
+          <t>3685.42</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2487.93</t>
+          <t>3613.72</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2361.40</t>
+          <t>3306.68</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2192.47</t>
+          <t>3227.79</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1598.67</t>
+          <t>2490.61</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1595.99</t>
+          <t>2485.27</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1688.42</t>
+          <t>2450.74</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1684.88</t>
+          <t>2440.34</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2649.44</t>
+          <t>3692.02</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2464.58</t>
+          <t>3664.15</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2362.57</t>
+          <t>3317.53</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2191.89</t>
+          <t>3241.63</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1601.85</t>
+          <t>2483.23</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1599.65</t>
+          <t>2478.58</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1684.71</t>
+          <t>2465.68</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1680.84</t>
+          <t>2463.78</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2641.26</t>
+          <t>3700.76</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2460.74</t>
+          <t>3678.48</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2364.05</t>
+          <t>3327.42</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2179.65</t>
+          <t>3251.40</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1580.44</t>
+          <t>2490.47</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1586.22</t>
+          <t>2485.91</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1674.97</t>
+          <t>2477.07</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1672.51</t>
+          <t>2472.47</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2610.08</t>
+          <t>3702.51</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2448.35</t>
+          <t>3704.35</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2368.89</t>
+          <t>3339.55</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2180.63</t>
+          <t>3265.84</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1580.88</t>
+          <t>2498.31</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1580.10</t>
+          <t>2493.90</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1675.90</t>
+          <t>2485.32</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1673.79</t>
+          <t>2480.41</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2619.14</t>
+          <t>3718.85</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2467.89</t>
+          <t>3724.06</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2383.33</t>
+          <t>3366.30</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2196.83</t>
+          <t>3302.48</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1595.05</t>
+          <t>2514.81</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1594.34</t>
+          <t>2510.28</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1687.21</t>
+          <t>2501.00</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1687.25</t>
+          <t>2497.57</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2738.65</t>
+          <t>3840.09</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2601.34</t>
+          <t>3833.10</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2493.10</t>
+          <t>3490.28</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2325.85</t>
+          <t>3407.73</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1708.46</t>
+          <t>2623.64</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1706.20</t>
+          <t>2618.73</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1799.94</t>
+          <t>2614.92</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1800.49</t>
+          <t>2610.70</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3545.22</t>
+          <t>4680.86</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3352.16</t>
+          <t>4587.99</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3212.90</t>
+          <t>4327.85</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2984.77</t>
+          <t>4078.27</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2279.24</t>
+          <t>3214.89</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2270.78</t>
+          <t>3205.59</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2453.61</t>
+          <t>3327.00</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2453.86</t>
+          <t>3321.14</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2292.58</t>
+          <t>3198.97</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2348.02</t>
+          <t>3232.16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>161.26</t>
+          <t>1095.68</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2147.05</t>
+          <t>3025.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1726.96</t>
+          <t>2430.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1725.60</t>
+          <t>2427.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1679.56</t>
+          <t>2376.78</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1711.35</t>
+          <t>2376.42</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2578.87</t>
+          <t>3537.59</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2643.05</t>
+          <t>3658.51</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2510.85</t>
+          <t>3315.03</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2478.75</t>
+          <t>3334.80</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1901.08</t>
+          <t>2499.99</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1899.32</t>
+          <t>2495.93</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1827.17</t>
+          <t>2414.69</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1831.25</t>
+          <t>2422.81</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2668.76</t>
+          <t>3494.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2738.68</t>
+          <t>3569.58</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2414.02</t>
+          <t>3232.52</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2462.53</t>
+          <t>3280.82</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1879.44</t>
+          <t>2445.80</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1877.73</t>
+          <t>2441.77</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1805.45</t>
+          <t>2350.77</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1804.83</t>
+          <t>2350.46</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2669.92</t>
+          <t>3533.13</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2738.66</t>
+          <t>3596.36</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2411.32</t>
+          <t>3234.86</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2466.58</t>
+          <t>3286.95</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1880.96</t>
+          <t>2462.50</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1879.28</t>
+          <t>2457.56</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1807.65</t>
+          <t>2346.34</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1806.06</t>
+          <t>2342.76</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2597.68</t>
+          <t>3566.84</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2560.81</t>
+          <t>3591.77</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2347.18</t>
+          <t>3239.08</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2401.62</t>
+          <t>3281.96</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1828.80</t>
+          <t>2469.69</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1827.27</t>
+          <t>2463.49</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1757.40</t>
+          <t>2362.08</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1755.61</t>
+          <t>2357.51</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2602.74</t>
+          <t>3585.12</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2560.57</t>
+          <t>3612.94</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2349.36</t>
+          <t>3243.05</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2402.30</t>
+          <t>3307.19</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1828.85</t>
+          <t>2474.34</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1827.21</t>
+          <t>2471.08</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1757.92</t>
+          <t>2382.23</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1756.11</t>
+          <t>2377.56</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2570.64</t>
+          <t>3565.81</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2564.20</t>
+          <t>3626.15</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2352.51</t>
+          <t>3258.87</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2403.60</t>
+          <t>3315.22</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1830.02</t>
+          <t>2481.22</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1828.26</t>
+          <t>2476.86</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1759.46</t>
+          <t>2401.11</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1757.69</t>
+          <t>2396.55</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2574.06</t>
+          <t>3584.05</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2655.06</t>
+          <t>3623.98</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2363.55</t>
+          <t>3288.59</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2413.91</t>
+          <t>3332.47</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1839.72</t>
+          <t>2496.82</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1837.90</t>
+          <t>2492.20</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1769.09</t>
+          <t>2435.21</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1767.48</t>
+          <t>2430.67</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2681.52</t>
+          <t>3694.94</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2758.26</t>
+          <t>3742.28</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2450.60</t>
+          <t>3418.97</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2514.13</t>
+          <t>3447.51</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1930.38</t>
+          <t>2614.03</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1928.53</t>
+          <t>2609.37</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1857.43</t>
+          <t>2561.06</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1855.63</t>
+          <t>2556.53</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3306.32</t>
+          <t>4477.87</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3250.90</t>
+          <t>4422.77</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2962.68</t>
+          <t>4198.11</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2890.81</t>
+          <t>4171.20</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2347.12</t>
+          <t>3208.83</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2339.81</t>
+          <t>3204.38</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2304.50</t>
+          <t>3239.27</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2302.50</t>
+          <t>3238.93</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2623.72</t>
+          <t>3177.85</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2743.15</t>
+          <t>3289.56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>238.11</t>
+          <t>892.99</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2469.96</t>
+          <t>3079.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1981.86</t>
+          <t>2429.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1977.96</t>
+          <t>2425.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1877.61</t>
+          <t>2337.37</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1896.95</t>
+          <t>2352.85</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2965.06</t>
+          <t>3490.39</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3085.49</t>
+          <t>3577.48</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2674.87</t>
+          <t>3302.57</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2723.33</t>
+          <t>3339.53</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2084.14</t>
+          <t>2533.46</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2079.31</t>
+          <t>2528.67</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1959.85</t>
+          <t>2418.52</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1961.14</t>
+          <t>2417.98</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2935.52</t>
+          <t>3487.54</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3051.22</t>
+          <t>3552.40</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2592.03</t>
+          <t>3242.78</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2684.71</t>
+          <t>3284.46</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2040.44</t>
+          <t>2474.13</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2035.67</t>
+          <t>2469.73</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1920.78</t>
+          <t>2363.82</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1917.65</t>
+          <t>2359.69</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2936.17</t>
+          <t>3494.98</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3048.59</t>
+          <t>3555.10</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2589.87</t>
+          <t>3252.82</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2686.10</t>
+          <t>3281.75</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2043.90</t>
+          <t>2480.30</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2039.13</t>
+          <t>2475.59</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1919.88</t>
+          <t>2355.06</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1915.63</t>
+          <t>2349.81</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2940.82</t>
+          <t>3507.72</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3041.76</t>
+          <t>3564.95</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2596.47</t>
+          <t>3269.16</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2691.32</t>
+          <t>3295.91</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2044.51</t>
+          <t>2497.69</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2039.82</t>
+          <t>2493.13</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1922.57</t>
+          <t>2372.25</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1917.97</t>
+          <t>2366.94</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2914.60</t>
+          <t>3519.83</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3014.67</t>
+          <t>3581.75</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2579.34</t>
+          <t>3284.49</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2669.11</t>
+          <t>3310.07</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>2023.93</t>
+          <t>2506.07</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>2019.27</t>
+          <t>2501.55</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1907.59</t>
+          <t>2388.36</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1902.94</t>
+          <t>2383.06</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2914.73</t>
+          <t>3538.31</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3021.55</t>
+          <t>3599.83</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2587.08</t>
+          <t>3297.47</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2675.01</t>
+          <t>3323.98</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2026.78</t>
+          <t>2514.92</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2016.32</t>
+          <t>2510.42</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1911.57</t>
+          <t>2403.86</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1906.95</t>
+          <t>2398.93</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2927.89</t>
+          <t>3560.70</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3033.84</t>
+          <t>3626.87</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2602.07</t>
+          <t>3322.35</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2688.73</t>
+          <t>3346.20</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2037.78</t>
+          <t>2532.62</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2027.26</t>
+          <t>2528.15</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1923.35</t>
+          <t>2421.71</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1918.73</t>
+          <t>2417.09</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3037.53</t>
+          <t>3687.11</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3142.32</t>
+          <t>3756.54</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2698.67</t>
+          <t>3437.54</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2798.02</t>
+          <t>3466.45</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2135.08</t>
+          <t>2642.38</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2130.37</t>
+          <t>2637.91</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>2019.12</t>
+          <t>2530.08</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>2014.46</t>
+          <t>2525.88</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3679.27</t>
+          <t>4313.38</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3780.79</t>
+          <t>4318.07</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3283.40</t>
+          <t>4066.62</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3361.58</t>
+          <t>4063.90</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2619.86</t>
+          <t>3183.56</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2608.90</t>
+          <t>3176.91</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2542.11</t>
+          <t>3164.74</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2537.01</t>
+          <t>3164.07</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2246.58</t>
+          <t>3100.88</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2352.86</t>
+          <t>3181.30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>533.23</t>
+          <t>1073.43</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2168.72</t>
+          <t>2926.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1752.16</t>
+          <t>2389.01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1748.93</t>
+          <t>2385.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1659.01</t>
+          <t>2315.01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1702.18</t>
+          <t>2312.89</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2363.34</t>
+          <t>3332.52</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2543.80</t>
+          <t>3422.82</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2378.81</t>
+          <t>3129.64</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2347.35</t>
+          <t>3158.24</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1827.62</t>
+          <t>2458.31</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1823.78</t>
+          <t>2453.53</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1713.14</t>
+          <t>2356.47</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1721.18</t>
+          <t>2352.49</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2336.18</t>
+          <t>3336.41</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2555.46</t>
+          <t>3426.71</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2148.26</t>
+          <t>3061.03</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2221.35</t>
+          <t>3113.80</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1707.16</t>
+          <t>2407.42</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1705.16</t>
+          <t>2402.71</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1603.81</t>
+          <t>2307.40</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1603.91</t>
+          <t>2302.91</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2325.18</t>
+          <t>3341.10</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2549.47</t>
+          <t>3430.79</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1999.80</t>
+          <t>3063.21</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2081.87</t>
+          <t>3121.57</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1664.91</t>
+          <t>2407.60</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1660.56</t>
+          <t>2402.91</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1600.79</t>
+          <t>2308.21</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1599.96</t>
+          <t>2303.67</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2323.03</t>
+          <t>3351.62</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2503.93</t>
+          <t>3398.03</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1995.81</t>
+          <t>3076.60</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2067.18</t>
+          <t>3134.31</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1665.70</t>
+          <t>2414.40</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1661.29</t>
+          <t>2409.72</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1609.85</t>
+          <t>2315.44</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1608.07</t>
+          <t>2310.91</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2322.28</t>
+          <t>3362.17</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2509.09</t>
+          <t>3410.29</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1999.61</t>
+          <t>3089.45</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2070.79</t>
+          <t>3146.55</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1674.36</t>
+          <t>2421.51</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1670.05</t>
+          <t>2416.85</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1618.06</t>
+          <t>2322.94</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1615.99</t>
+          <t>2318.43</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2322.70</t>
+          <t>3333.45</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2516.80</t>
+          <t>3422.42</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2004.04</t>
+          <t>3107.93</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2074.39</t>
+          <t>3158.82</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1677.02</t>
+          <t>2429.22</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1672.70</t>
+          <t>2424.58</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1625.50</t>
+          <t>2331.00</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1621.36</t>
+          <t>2326.50</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2329.92</t>
+          <t>3353.59</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2528.70</t>
+          <t>3442.18</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2000.15</t>
+          <t>3128.29</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2083.53</t>
+          <t>3178.88</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1704.42</t>
+          <t>2445.51</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1701.64</t>
+          <t>2440.90</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1647.98</t>
+          <t>2347.60</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1643.79</t>
+          <t>2343.12</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2406.39</t>
+          <t>3464.60</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2613.09</t>
+          <t>3554.48</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2059.87</t>
+          <t>3234.83</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2140.67</t>
+          <t>3291.32</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1761.64</t>
+          <t>2551.27</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1757.27</t>
+          <t>2546.65</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1720.81</t>
+          <t>2452.67</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1718.15</t>
+          <t>2448.17</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2851.87</t>
+          <t>4034.57</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3079.76</t>
+          <t>4109.11</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2457.62</t>
+          <t>3740.54</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2501.28</t>
+          <t>3774.64</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2070.30</t>
+          <t>3036.10</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2053.78</t>
+          <t>3029.09</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1989.79</t>
+          <t>2992.49</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1987.97</t>
+          <t>2989.58</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2251.58</t>
+          <t>3021.20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2387.26</t>
+          <t>3099.91</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>603.80</t>
+          <t>1419.41</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2053.82</t>
+          <t>2864.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1648.21</t>
+          <t>2323.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1645.22</t>
+          <t>2320.42</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1538.45</t>
+          <t>2254.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1636.00</t>
+          <t>2254.99</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2395.89</t>
+          <t>3198.91</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2523.48</t>
+          <t>3286.65</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2370.39</t>
+          <t>3085.78</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2146.90</t>
+          <t>3090.32</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1671.63</t>
+          <t>2387.84</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1667.81</t>
+          <t>2383.31</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1542.62</t>
+          <t>2293.13</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1560.85</t>
+          <t>2290.27</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2370.85</t>
+          <t>3231.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2518.27</t>
+          <t>3310.26</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1936.18</t>
+          <t>2980.11</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2013.27</t>
+          <t>3025.73</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1612.17</t>
+          <t>2323.14</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1606.75</t>
+          <t>2318.73</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1495.89</t>
+          <t>2230.52</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1492.17</t>
+          <t>2226.32</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2361.13</t>
+          <t>3235.53</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2507.76</t>
+          <t>3314.42</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1896.54</t>
+          <t>2980.90</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2007.04</t>
+          <t>3031.17</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1607.65</t>
+          <t>2319.97</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1602.68</t>
+          <t>2315.59</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1488.82</t>
+          <t>2232.06</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1481.80</t>
+          <t>2227.74</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2358.80</t>
+          <t>3246.02</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2464.56</t>
+          <t>3250.27</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1895.64</t>
+          <t>2994.00</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2007.21</t>
+          <t>3050.43</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1607.50</t>
+          <t>2326.16</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1602.30</t>
+          <t>2321.80</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1487.97</t>
+          <t>2239.61</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1480.51</t>
+          <t>2235.30</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2357.79</t>
+          <t>3256.33</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2468.91</t>
+          <t>3261.45</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1898.66</t>
+          <t>3008.67</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2008.29</t>
+          <t>3066.35</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1607.98</t>
+          <t>2332.71</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1602.66</t>
+          <t>2328.37</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1488.80</t>
+          <t>2247.27</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1485.94</t>
+          <t>2242.97</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2351.69</t>
+          <t>3199.27</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2476.34</t>
+          <t>3272.52</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1902.52</t>
+          <t>3024.67</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2010.16</t>
+          <t>3081.27</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1608.80</t>
+          <t>2339.87</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1603.45</t>
+          <t>2335.54</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1491.39</t>
+          <t>2255.40</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1488.54</t>
+          <t>2251.10</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2363.70</t>
+          <t>3219.05</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2488.77</t>
+          <t>3290.82</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1914.01</t>
+          <t>3047.84</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2018.00</t>
+          <t>3103.23</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1612.33</t>
+          <t>2361.60</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1606.87</t>
+          <t>2354.57</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1501.01</t>
+          <t>2271.72</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1498.17</t>
+          <t>2267.45</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2437.26</t>
+          <t>3323.98</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2583.09</t>
+          <t>3396.09</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1985.54</t>
+          <t>3163.10</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2093.93</t>
+          <t>3224.26</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1678.47</t>
+          <t>2463.77</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1672.89</t>
+          <t>2459.45</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1579.84</t>
+          <t>2375.96</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1577.00</t>
+          <t>2371.66</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2882.42</t>
+          <t>3876.36</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3020.59</t>
+          <t>3934.20</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2322.76</t>
+          <t>3613.04</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2405.39</t>
+          <t>3641.04</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2036.78</t>
+          <t>2937.91</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2020.35</t>
+          <t>2931.54</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1916.41</t>
+          <t>2909.79</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1903.76</t>
+          <t>2907.37</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2302.49</t>
+          <t>3007.44</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2265.59</t>
+          <t>3064.48</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>817.11</t>
+          <t>1626.95</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2091.62</t>
+          <t>2789.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1699.06</t>
+          <t>2167.45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1696.22</t>
+          <t>2161.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1662.54</t>
+          <t>2135.96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1758.76</t>
+          <t>2145.77</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2423.39</t>
+          <t>3008.31</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2290.13</t>
+          <t>3071.32</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2519.30</t>
+          <t>3062.46</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2165.23</t>
+          <t>2891.82</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1720.74</t>
+          <t>2149.54</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1717.18</t>
+          <t>2133.90</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1660.94</t>
+          <t>2180.08</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1685.76</t>
+          <t>2178.90</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2354.51</t>
+          <t>3268.32</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2231.37</t>
+          <t>3274.89</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2093.71</t>
+          <t>2960.16</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2013.89</t>
+          <t>2843.83</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1537.91</t>
+          <t>2125.14</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1535.12</t>
+          <t>2116.72</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1607.90</t>
+          <t>2139.43</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1608.77</t>
+          <t>2135.10</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2344.72</t>
+          <t>3296.30</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2225.67</t>
+          <t>3276.81</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2051.13</t>
+          <t>2961.42</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2012.99</t>
+          <t>2880.15</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1534.40</t>
+          <t>2161.02</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1531.62</t>
+          <t>2152.64</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1600.45</t>
+          <t>2150.29</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1597.89</t>
+          <t>2145.39</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2343.37</t>
+          <t>3311.31</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2227.17</t>
+          <t>3044.66</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2049.31</t>
+          <t>2980.06</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1997.66</t>
+          <t>2927.42</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1510.86</t>
+          <t>2180.12</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1507.76</t>
+          <t>2174.86</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1600.08</t>
+          <t>2166.19</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1597.07</t>
+          <t>2161.27</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2343.53</t>
+          <t>3324.40</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2229.61</t>
+          <t>3057.46</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2051.88</t>
+          <t>3001.29</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1998.19</t>
+          <t>2959.51</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1522.49</t>
+          <t>2189.45</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1520.59</t>
+          <t>2180.15</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1600.97</t>
+          <t>2181.98</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1597.92</t>
+          <t>2177.04</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2344.72</t>
+          <t>3009.53</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2232.63</t>
+          <t>3069.00</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2055.43</t>
+          <t>3021.59</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1999.74</t>
+          <t>2970.39</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1524.48</t>
+          <t>2198.24</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1522.56</t>
+          <t>2193.00</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1602.80</t>
+          <t>2198.34</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1599.76</t>
+          <t>2192.79</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2351.21</t>
+          <t>3032.76</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2239.93</t>
+          <t>3088.49</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2064.05</t>
+          <t>3046.90</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2009.35</t>
+          <t>2988.76</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1560.13</t>
+          <t>2215.44</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1559.40</t>
+          <t>2210.25</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1609.78</t>
+          <t>2222.58</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1606.78</t>
+          <t>2217.05</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2419.74</t>
+          <t>3157.56</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2294.55</t>
+          <t>3206.07</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2133.46</t>
+          <t>3145.99</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2091.23</t>
+          <t>3103.08</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1610.11</t>
+          <t>2317.90</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1607.02</t>
+          <t>2312.73</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1670.82</t>
+          <t>2333.48</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1667.99</t>
+          <t>2326.78</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2794.97</t>
+          <t>3814.10</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2698.25</t>
+          <t>3822.40</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2443.34</t>
+          <t>3502.92</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2302.04</t>
+          <t>3398.84</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1932.19</t>
+          <t>2789.86</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1925.56</t>
+          <t>2768.95</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1975.58</t>
+          <t>2903.76</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1965.91</t>
+          <t>2904.13</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2444.05</t>
+          <t>3188.04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2502.57</t>
+          <t>3277.25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>902.43</t>
+          <t>1411.56</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2315.39</t>
+          <t>3017.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1860.30</t>
+          <t>2445.10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1857.71</t>
+          <t>2441.98</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1809.51</t>
+          <t>2345.50</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1845.39</t>
+          <t>2349.95</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2527.71</t>
+          <t>3515.73</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2566.64</t>
+          <t>3594.36</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2487.57</t>
+          <t>3226.32</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2373.28</t>
+          <t>3244.59</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1857.01</t>
+          <t>2506.01</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1853.79</t>
+          <t>2501.40</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1804.79</t>
+          <t>2370.64</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1811.59</t>
+          <t>2369.32</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2477.15</t>
+          <t>3413.86</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2549.02</t>
+          <t>3524.31</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2275.22</t>
+          <t>3135.64</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2314.56</t>
+          <t>3201.74</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1801.75</t>
+          <t>2456.51</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1798.55</t>
+          <t>2451.96</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1719.26</t>
+          <t>2323.22</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1718.22</t>
+          <t>2318.97</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2477.07</t>
+          <t>3425.64</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2547.88</t>
+          <t>3535.89</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2259.13</t>
+          <t>3147.34</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2315.96</t>
+          <t>3213.16</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1799.14</t>
+          <t>2458.97</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1795.96</t>
+          <t>2454.46</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1717.64</t>
+          <t>2333.84</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1714.84</t>
+          <t>2329.19</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2485.01</t>
+          <t>3444.45</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2441.50</t>
+          <t>3592.10</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2266.76</t>
+          <t>3166.40</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2259.77</t>
+          <t>3230.98</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1803.92</t>
+          <t>2469.16</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1800.78</t>
+          <t>2464.99</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1723.22</t>
+          <t>2344.40</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1720.12</t>
+          <t>2339.73</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2493.32</t>
+          <t>3459.80</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2448.77</t>
+          <t>3610.42</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2276.56</t>
+          <t>3184.24</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2268.16</t>
+          <t>3248.13</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1809.45</t>
+          <t>2479.61</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1806.31</t>
+          <t>2475.11</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1729.40</t>
+          <t>2354.82</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1726.26</t>
+          <t>2350.16</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2387.53</t>
+          <t>3536.28</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2458.50</t>
+          <t>3628.09</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2286.74</t>
+          <t>3201.37</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2268.15</t>
+          <t>3265.15</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1815.78</t>
+          <t>2490.48</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1812.66</t>
+          <t>2485.95</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1736.19</t>
+          <t>2365.59</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1733.07</t>
+          <t>2360.91</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2402.58</t>
+          <t>3563.35</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2472.99</t>
+          <t>3654.68</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2304.30</t>
+          <t>3207.67</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2283.56</t>
+          <t>3290.07</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1830.15</t>
+          <t>2510.56</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1827.04</t>
+          <t>2506.07</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1750.87</t>
+          <t>2401.23</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1747.75</t>
+          <t>2396.84</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2485.20</t>
+          <t>3692.35</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2555.07</t>
+          <t>3773.30</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2384.41</t>
+          <t>3320.03</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2380.32</t>
+          <t>3412.04</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1916.57</t>
+          <t>2624.72</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1913.44</t>
+          <t>2620.18</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1835.91</t>
+          <t>2509.88</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1832.78</t>
+          <t>2505.46</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2863.86</t>
+          <t>4292.36</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2839.03</t>
+          <t>4345.88</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2605.11</t>
+          <t>4000.57</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2599.47</t>
+          <t>4021.07</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2114.76</t>
+          <t>3136.94</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2108.52</t>
+          <t>3130.30</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2092.39</t>
+          <t>3076.83</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2095.88</t>
+          <t>3074.05</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3062.07</t>
+          <t>3297.32</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2989.85</t>
+          <t>3291.89</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1024.54</t>
+          <t>1444.72</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2798.70</t>
+          <t>3077.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2217.79</t>
+          <t>2447.29</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2217.06</t>
+          <t>2444.04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2217.98</t>
+          <t>2429.01</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2168.77</t>
+          <t>2426.79</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3425.40</t>
+          <t>3608.67</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3431.78</t>
+          <t>3648.97</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3122.06</t>
+          <t>3388.77</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3030.91</t>
+          <t>3272.66</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2345.69</t>
+          <t>2545.67</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2342.86</t>
+          <t>2540.52</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2296.89</t>
+          <t>2481.76</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2297.80</t>
+          <t>2478.63</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3337.35</t>
+          <t>3584.16</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3340.49</t>
+          <t>3558.46</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>3054.75</t>
+          <t>3326.00</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2992.08</t>
+          <t>3241.92</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2306.07</t>
+          <t>2485.34</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2304.42</t>
+          <t>2480.79</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2264.71</t>
+          <t>2453.72</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2262.87</t>
+          <t>2444.46</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3348.88</t>
+          <t>3594.96</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3346.94</t>
+          <t>3567.09</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>3062.57</t>
+          <t>3341.33</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>3004.96</t>
+          <t>3256.75</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2302.38</t>
+          <t>2446.08</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2301.98</t>
+          <t>2446.22</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2277.26</t>
+          <t>2451.25</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2272.30</t>
+          <t>2446.56</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3365.07</t>
+          <t>3606.28</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3361.65</t>
+          <t>3599.29</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3078.10</t>
+          <t>3368.40</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>3026.77</t>
+          <t>3272.87</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2298.93</t>
+          <t>2455.42</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2308.05</t>
+          <t>2454.26</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2291.50</t>
+          <t>2461.04</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2288.27</t>
+          <t>2457.37</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3384.13</t>
+          <t>3620.75</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3348.07</t>
+          <t>3602.28</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>3097.20</t>
+          <t>3382.05</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>3042.15</t>
+          <t>3290.06</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2304.15</t>
+          <t>2487.09</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2302.73</t>
+          <t>2482.36</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2303.07</t>
+          <t>2472.61</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2300.70</t>
+          <t>2468.83</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3429.87</t>
+          <t>3616.23</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3358.24</t>
+          <t>3615.15</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>3113.92</t>
+          <t>3397.81</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3056.30</t>
+          <t>3306.47</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2296.20</t>
+          <t>2496.44</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2296.99</t>
+          <t>2491.73</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2312.23</t>
+          <t>2484.09</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2310.05</t>
+          <t>2480.71</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3453.57</t>
+          <t>3641.59</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3367.66</t>
+          <t>3646.22</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>3143.44</t>
+          <t>3423.96</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>3087.14</t>
+          <t>3330.12</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2311.43</t>
+          <t>2514.27</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2310.30</t>
+          <t>2509.60</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>2334.80</t>
+          <t>2514.59</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>2330.18</t>
+          <t>2501.98</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3568.48</t>
+          <t>3770.58</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3475.19</t>
+          <t>3784.31</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>3259.08</t>
+          <t>3540.89</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>3284.90</t>
+          <t>3439.93</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2409.00</t>
+          <t>2636.62</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2407.10</t>
+          <t>2631.86</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2448.42</t>
+          <t>2624.68</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2446.31</t>
+          <t>2620.99</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4350.73</t>
+          <t>4511.66</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>4165.19</t>
+          <t>4396.58</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>4077.40</t>
+          <t>4307.36</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>4009.14</t>
+          <t>4075.20</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2978.83</t>
+          <t>3180.13</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2980.69</t>
+          <t>3172.63</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>3092.44</t>
+          <t>3299.21</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>3091.41</t>
+          <t>3298.18</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3278.15</t>
+          <t>3347.25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2855.75</t>
+          <t>3289.75</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>862.96</t>
+          <t>1003.80</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2488.34</t>
+          <t>3026.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2019.22</t>
+          <t>2451.78</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2016.15</t>
+          <t>2448.52</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2370.15</t>
+          <t>2484.72</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2349.45</t>
+          <t>2491.57</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3763.14</t>
+          <t>3792.48</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3295.36</t>
+          <t>3695.91</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3226.56</t>
+          <t>3416.71</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2903.67</t>
+          <t>3271.99</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2087.37</t>
+          <t>2559.26</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2083.86</t>
+          <t>2557.16</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2433.05</t>
+          <t>2545.95</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2422.02</t>
+          <t>2539.45</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3606.47</t>
+          <t>3692.09</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3174.64</t>
+          <t>3589.23</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>3224.74</t>
+          <t>3344.02</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2877.90</t>
+          <t>3222.56</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2029.33</t>
+          <t>2485.55</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2032.70</t>
+          <t>2481.04</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2413.40</t>
+          <t>2491.42</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2402.52</t>
+          <t>2487.87</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3613.78</t>
+          <t>3711.20</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3185.51</t>
+          <t>3606.01</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>3232.83</t>
+          <t>3349.59</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2892.06</t>
+          <t>3233.37</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2242.42</t>
+          <t>2473.70</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2239.52</t>
+          <t>2469.29</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2420.75</t>
+          <t>2488.96</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2415.76</t>
+          <t>2484.32</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3618.76</t>
+          <t>3735.50</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3276.13</t>
+          <t>3687.40</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>3253.69</t>
+          <t>3364.25</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2908.17</t>
+          <t>3247.02</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2248.30</t>
+          <t>2492.70</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2248.06</t>
+          <t>2487.78</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2433.94</t>
+          <t>2494.64</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2428.64</t>
+          <t>2490.01</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3627.03</t>
+          <t>3754.34</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3283.93</t>
+          <t>3700.34</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>3272.76</t>
+          <t>3376.79</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2921.00</t>
+          <t>3269.83</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2255.90</t>
+          <t>2486.47</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2253.72</t>
+          <t>2481.98</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2442.12</t>
+          <t>2504.29</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2438.02</t>
+          <t>2499.74</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3704.72</t>
+          <t>3797.79</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3296.74</t>
+          <t>3713.03</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>3290.57</t>
+          <t>3395.24</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2930.82</t>
+          <t>3291.38</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2265.33</t>
+          <t>2512.13</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2262.18</t>
+          <t>2507.77</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2454.56</t>
+          <t>2515.59</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2443.50</t>
+          <t>2511.17</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3711.04</t>
+          <t>3820.54</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3314.53</t>
+          <t>3736.40</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>3313.99</t>
+          <t>3417.27</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2950.07</t>
+          <t>3340.07</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2283.43</t>
+          <t>2529.66</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2280.22</t>
+          <t>2525.27</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2466.39</t>
+          <t>2529.19</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2464.06</t>
+          <t>2530.30</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3826.07</t>
+          <t>3945.91</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3431.92</t>
+          <t>3855.28</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>3426.70</t>
+          <t>3570.35</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>3071.87</t>
+          <t>3465.80</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2398.92</t>
+          <t>2634.23</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2395.85</t>
+          <t>2631.90</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2586.81</t>
+          <t>2643.07</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2583.25</t>
+          <t>2641.43</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4558.76</t>
+          <t>4807.42</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>4000.20</t>
+          <t>4484.58</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>4273.28</t>
+          <t>4425.14</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3668.05</t>
+          <t>4141.21</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2632.20</t>
+          <t>3214.76</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2625.63</t>
+          <t>3209.47</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>3242.74</t>
+          <t>3429.83</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>3240.73</t>
+          <t>3424.75</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2783.63</t>
+          <t>3340.29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2592.02</t>
+          <t>3206.24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>348.66</t>
+          <t>545.52</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2417.61</t>
+          <t>2966.15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2042.88</t>
+          <t>2406.18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2039.02</t>
+          <t>2404.07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2220.74</t>
+          <t>2459.32</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2224.82</t>
+          <t>2459.23</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2989.68</t>
+          <t>3669.47</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2995.46</t>
+          <t>3595.20</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2731.64</t>
+          <t>3381.41</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2050.71</t>
+          <t>3229.02</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2058.47</t>
+          <t>2482.16</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2058.49</t>
+          <t>2479.02</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2264.62</t>
+          <t>2531.61</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2264.98</t>
+          <t>2530.85</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2883.97</t>
+          <t>3628.43</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2860.82</t>
+          <t>3514.93</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2617.50</t>
+          <t>3320.41</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2608.27</t>
+          <t>3180.52</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2022.26</t>
+          <t>2437.66</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2019.44</t>
+          <t>2432.84</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2216.83</t>
+          <t>2487.30</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2213.39</t>
+          <t>2483.83</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2885.49</t>
+          <t>3634.39</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2864.66</t>
+          <t>3516.24</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2613.03</t>
+          <t>3326.81</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2608.79</t>
+          <t>3186.07</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2022.15</t>
+          <t>2453.55</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2019.17</t>
+          <t>2448.71</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2211.55</t>
+          <t>2487.75</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2206.86</t>
+          <t>2483.18</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2892.26</t>
+          <t>3644.20</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2964.45</t>
+          <t>3537.54</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2594.13</t>
+          <t>3340.19</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2617.09</t>
+          <t>3200.39</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2025.03</t>
+          <t>2468.74</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2022.68</t>
+          <t>2464.20</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2214.85</t>
+          <t>2495.33</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2209.97</t>
+          <t>2491.48</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2889.01</t>
+          <t>3647.49</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2607.88</t>
+          <t>3558.03</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2598.24</t>
+          <t>3353.70</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2625.52</t>
+          <t>3219.82</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2028.79</t>
+          <t>2455.41</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2026.73</t>
+          <t>2454.35</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2022.84</t>
+          <t>2500.91</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2018.17</t>
+          <t>2497.09</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2948.00</t>
+          <t>3649.73</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2312.76</t>
+          <t>3570.33</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2605.98</t>
+          <t>3364.49</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2634.20</t>
+          <t>3237.87</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2033.69</t>
+          <t>2459.93</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2031.69</t>
+          <t>2456.72</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2026.45</t>
+          <t>2507.73</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2022.39</t>
+          <t>2503.65</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2961.17</t>
+          <t>3662.74</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2272.51</t>
+          <t>3589.15</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2622.41</t>
+          <t>3380.96</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2652.31</t>
+          <t>3262.10</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2048.53</t>
+          <t>2476.70</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2046.49</t>
+          <t>2473.39</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2038.37</t>
+          <t>2522.39</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2034.45</t>
+          <t>2519.70</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3070.17</t>
+          <t>3762.15</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2734.00</t>
+          <t>3703.78</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2720.42</t>
+          <t>3488.47</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2773.34</t>
+          <t>3388.46</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2160.51</t>
+          <t>2578.54</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2158.55</t>
+          <t>2576.04</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2127.46</t>
+          <t>2629.82</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2123.42</t>
+          <t>2626.24</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3890.32</t>
+          <t>4595.62</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3071.26</t>
+          <t>4365.09</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3488.20</t>
+          <t>4234.79</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2834.85</t>
+          <t>4002.85</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2013.73</t>
+          <t>3153.66</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2005.42</t>
+          <t>3147.24</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2695.44</t>
+          <t>3339.95</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2691.52</t>
+          <t>3340.64</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>135.51</t>
+          <t>3007.44</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>98.88</t>
+          <t>3064.48</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>161.26</t>
+          <t>434.68</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>99.04</t>
+          <t>2789.02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>108.16</t>
+          <t>2167.45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>108.15</t>
+          <t>2161.25</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>327.35</t>
+          <t>2135.96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>339.03</t>
+          <t>2145.77</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>369.07</t>
+          <t>3008.31</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>343.75</t>
+          <t>3071.32</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>489.42</t>
+          <t>3062.46</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>101.50</t>
+          <t>2891.82</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>111.28</t>
+          <t>2149.54</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>111.37</t>
+          <t>2133.90</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>753.92</t>
+          <t>2180.08</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>740.05</t>
+          <t>2178.90</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>665.99</t>
+          <t>3231.00</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>101.97</t>
+          <t>3274.89</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>361.17</t>
+          <t>2960.16</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>102.29</t>
+          <t>2843.83</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>112.50</t>
+          <t>2125.14</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>112.52</t>
+          <t>2116.72</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>806.72</t>
+          <t>2139.43</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>768.91</t>
+          <t>2135.10</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>608.42</t>
+          <t>3235.53</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>101.85</t>
+          <t>3276.81</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>242.38</t>
+          <t>2961.42</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>102.15</t>
+          <t>2880.15</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>112.28</t>
+          <t>2161.02</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>112.30</t>
+          <t>2152.64</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>741.41</t>
+          <t>2150.29</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>697.92</t>
+          <t>2145.39</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>485.69</t>
+          <t>3246.02</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>342.95</t>
+          <t>3044.66</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>117.40</t>
+          <t>2980.06</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>101.75</t>
+          <t>2927.42</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>111.45</t>
+          <t>2180.12</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>111.57</t>
+          <t>2174.86</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>625.36</t>
+          <t>2166.19</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>581.35</t>
+          <t>2161.27</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>312.81</t>
+          <t>3256.33</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>343.58</t>
+          <t>3057.46</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>102.29</t>
+          <t>3001.29</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>101.32</t>
+          <t>2959.51</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>110.58</t>
+          <t>2189.45</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>110.72</t>
+          <t>2180.15</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>491.82</t>
+          <t>2181.98</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>455.90</t>
+          <t>2177.04</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>342.89</t>
+          <t>3009.53</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>327.62</t>
+          <t>3069.00</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>101.73</t>
+          <t>3021.59</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>100.87</t>
+          <t>2970.39</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>109.66</t>
+          <t>2198.24</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>109.77</t>
+          <t>2193.00</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>339.30</t>
+          <t>2198.34</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>321.23</t>
+          <t>2192.79</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>344.07</t>
+          <t>3032.76</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>327.56</t>
+          <t>3088.49</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>101.04</t>
+          <t>3046.90</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>100.32</t>
+          <t>2988.76</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>108.50</t>
+          <t>2215.44</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>108.59</t>
+          <t>2210.25</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>230.79</t>
+          <t>2222.58</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>251.81</t>
+          <t>2217.05</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>343.52</t>
+          <t>3157.56</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>342.54</t>
+          <t>3206.07</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>99.77</t>
+          <t>3145.99</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>99.25</t>
+          <t>3103.08</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>106.64</t>
+          <t>2317.90</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>106.69</t>
+          <t>2312.73</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>384.05</t>
+          <t>2333.48</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>354.31</t>
+          <t>2326.78</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>613.64</t>
+          <t>3814.10</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>340.12</t>
+          <t>3822.40</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>494.38</t>
+          <t>3502.92</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>340.12</t>
+          <t>3398.84</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>103.23</t>
+          <t>2789.86</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>103.25</t>
+          <t>2768.95</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1565.57</t>
+          <t>2903.76</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1564.90</t>
+          <t>2904.13</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3278.15</t>
+          <t>3350.54</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2989.85</t>
+          <t>3291.89</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1024.54</t>
+          <t>1626.95</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2798.70</t>
+          <t>3079.80</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2217.79</t>
+          <t>2451.78</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2217.06</t>
+          <t>2448.52</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2370.15</t>
+          <t>2484.72</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2349.45</t>
+          <t>2491.57</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3763.14</t>
+          <t>3795.48</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3431.78</t>
+          <t>3728.22</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3226.56</t>
+          <t>3416.71</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3030.91</t>
+          <t>3339.53</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2345.69</t>
+          <t>2559.26</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2342.86</t>
+          <t>2557.16</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2433.05</t>
+          <t>2545.95</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2422.02</t>
+          <t>2539.45</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3606.47</t>
+          <t>3692.09</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3340.49</t>
+          <t>3590.15</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3224.74</t>
+          <t>3344.02</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2992.08</t>
+          <t>3284.46</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2306.07</t>
+          <t>2485.55</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2304.42</t>
+          <t>2481.04</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2413.40</t>
+          <t>2491.42</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2402.52</t>
+          <t>2487.87</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3613.78</t>
+          <t>3711.20</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3346.94</t>
+          <t>3613.72</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>3232.83</t>
+          <t>3349.59</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>3004.96</t>
+          <t>3286.95</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2302.38</t>
+          <t>2490.61</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2301.98</t>
+          <t>2485.27</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2420.75</t>
+          <t>2488.96</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2415.76</t>
+          <t>2484.32</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3618.76</t>
+          <t>3735.50</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3361.65</t>
+          <t>3736.17</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>3253.69</t>
+          <t>3368.40</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>3026.77</t>
+          <t>3295.91</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2298.93</t>
+          <t>2497.69</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2308.05</t>
+          <t>2493.13</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2433.94</t>
+          <t>2495.33</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2428.64</t>
+          <t>2491.48</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3627.03</t>
+          <t>3754.34</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3348.07</t>
+          <t>3737.46</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>3272.76</t>
+          <t>3382.05</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>3042.15</t>
+          <t>3319.34</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2304.15</t>
+          <t>2523.90</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2302.73</t>
+          <t>2521.21</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2442.12</t>
+          <t>2504.29</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2438.02</t>
+          <t>2499.74</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3704.72</t>
+          <t>3797.79</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3358.24</t>
+          <t>3744.71</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>3290.57</t>
+          <t>3397.81</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3056.30</t>
+          <t>3350.96</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2296.20</t>
+          <t>2548.06</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2296.99</t>
+          <t>2541.92</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2454.56</t>
+          <t>2515.59</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2443.50</t>
+          <t>2511.17</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3711.04</t>
+          <t>3820.54</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3367.66</t>
+          <t>3762.44</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>3313.99</t>
+          <t>3423.96</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>3087.14</t>
+          <t>3367.94</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2311.43</t>
+          <t>2568.03</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2310.30</t>
+          <t>2563.52</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2466.39</t>
+          <t>2529.19</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2464.06</t>
+          <t>2530.30</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3826.07</t>
+          <t>3945.91</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3475.19</t>
+          <t>3889.56</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3426.70</t>
+          <t>3570.35</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>3284.90</t>
+          <t>3489.20</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2409.00</t>
+          <t>2692.73</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2407.10</t>
+          <t>2685.34</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2586.81</t>
+          <t>2643.07</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2583.25</t>
+          <t>2641.43</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4558.76</t>
+          <t>4862.20</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4165.19</t>
+          <t>4598.44</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>4273.28</t>
+          <t>4425.14</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>4009.14</t>
+          <t>4171.20</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2978.83</t>
+          <t>3214.89</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2980.69</t>
+          <t>3209.47</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>3242.74</t>
+          <t>3429.83</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>3240.73</t>
+          <t>3424.75</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_NewDelhiTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_NewDelhiTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3281.05</t>
+          <t>3363.16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3140.42</t>
+          <t>2782.30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>450.84</t>
+          <t>889.57</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2863.36</t>
+          <t>2497.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2322.77</t>
+          <t>1961.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2320.07</t>
+          <t>1957.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2378.91</t>
+          <t>2498.32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2414.40</t>
+          <t>2489.26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3795.48</t>
+          <t>3795.72</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3461.58</t>
+          <t>3136.07</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3327.89</t>
+          <t>3375.32</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3125.36</t>
+          <t>2728.53</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2413.16</t>
+          <t>2061.16</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2409.07</t>
+          <t>2058.24</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2486.90</t>
+          <t>2558.14</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2485.61</t>
+          <t>2552.85</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3623.55</t>
+          <t>3626.36</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3423.59</t>
+          <t>3076.56</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>3209.49</t>
+          <t>3330.44</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>3092.97</t>
+          <t>2695.54</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2378.30</t>
+          <t>2027.94</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2374.19</t>
+          <t>2024.15</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2461.49</t>
+          <t>2517.31</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2453.33</t>
+          <t>2510.99</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3619.50</t>
+          <t>3597.84</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3429.09</t>
+          <t>3077.91</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>3208.29</t>
+          <t>3336.69</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>3101.57</t>
+          <t>2703.36</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2378.77</t>
+          <t>2030.20</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2377.70</t>
+          <t>2026.58</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2469.35</t>
+          <t>2528.80</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2459.43</t>
+          <t>2525.00</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3619.01</t>
+          <t>3598.16</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3438.68</t>
+          <t>3089.84</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>3219.54</t>
+          <t>3298.11</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>3112.13</t>
+          <t>2712.36</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2383.42</t>
+          <t>2165.36</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>2378.95</t>
+          <t>2156.00</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>2422.46</t>
+          <t>2532.21</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2418.31</t>
+          <t>2535.32</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3615.21</t>
+          <t>3610.74</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3442.30</t>
+          <t>3106.23</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>3233.95</t>
+          <t>3260.50</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>3117.12</t>
+          <t>2720.27</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>2375.10</t>
+          <t>2163.05</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>2378.82</t>
+          <t>2154.35</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>2429.94</t>
+          <t>2453.98</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>2426.78</t>
+          <t>2455.62</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3673.49</t>
+          <t>3694.05</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3448.77</t>
+          <t>3089.84</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>3249.44</t>
+          <t>3269.08</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3125.96</t>
+          <t>2725.30</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>2378.58</t>
+          <t>2167.48</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2377.93</t>
+          <t>2159.12</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>2438.28</t>
+          <t>2458.13</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>2434.42</t>
+          <t>2453.68</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3679.73</t>
+          <t>3687.64</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3467.26</t>
+          <t>3101.82</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>3268.48</t>
+          <t>3291.93</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>3145.16</t>
+          <t>2740.13</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>2392.98</t>
+          <t>2179.99</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>2393.06</t>
+          <t>2098.61</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>2449.43</t>
+          <t>2456.18</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>2445.73</t>
+          <t>2451.71</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3795.51</t>
+          <t>3790.75</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3588.04</t>
+          <t>3207.21</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>3397.23</t>
+          <t>3393.17</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>3263.78</t>
+          <t>2846.96</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>2513.08</t>
+          <t>2170.80</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>2509.26</t>
+          <t>2170.31</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2546.24</t>
+          <t>2585.06</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2542.21</t>
+          <t>2579.95</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4495.63</t>
+          <t>4493.46</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>4236.02</t>
+          <t>3945.74</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>4136.53</t>
+          <t>4135.23</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>3861.29</t>
+          <t>3446.25</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>3067.75</t>
+          <t>2665.52</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>3060.72</t>
+          <t>2655.18</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>3252.92</t>
+          <t>3227.18</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>3259.46</t>
+          <t>3227.20</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3263.79</t>
+          <t>3268.98</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3248.68</t>
+          <t>2540.81</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>502.06</t>
+          <t>681.85</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2950.00</t>
+          <t>2367.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2395.78</t>
+          <t>1839.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2392.46</t>
+          <t>1840.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2403.73</t>
+          <t>2438.23</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2408.44</t>
+          <t>2442.52</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3725.55</t>
+          <t>3795.83</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3728.22</t>
+          <t>2930.39</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3304.91</t>
+          <t>3258.11</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3241.56</t>
+          <t>2585.38</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2476.88</t>
+          <t>1942.17</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2470.89</t>
+          <t>1943.14</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2487.58</t>
+          <t>2513.58</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2482.06</t>
+          <t>2511.75</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3547.33</t>
+          <t>3651.02</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3547.99</t>
+          <t>2762.49</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>3240.55</t>
+          <t>3231.87</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3203.33</t>
+          <t>2421.30</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2454.03</t>
+          <t>1838.17</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2447.87</t>
+          <t>1836.40</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2423.22</t>
+          <t>2465.12</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2411.95</t>
+          <t>2461.82</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3566.63</t>
+          <t>3652.67</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3583.69</t>
+          <t>2786.57</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>3240.21</t>
+          <t>3248.39</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>3239.94</t>
+          <t>2409.31</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2465.86</t>
+          <t>2303.47</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2460.85</t>
+          <t>2298.48</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2426.44</t>
+          <t>2460.14</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2422.58</t>
+          <t>2455.87</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3590.75</t>
+          <t>3659.82</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3736.17</t>
+          <t>2981.96</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>3250.57</t>
+          <t>3269.80</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>3274.53</t>
+          <t>2403.61</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2487.49</t>
+          <t>2305.42</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2480.00</t>
+          <t>2300.79</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>2436.61</t>
+          <t>2459.23</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2432.04</t>
+          <t>2454.65</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3608.56</t>
+          <t>3664.98</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3737.46</t>
+          <t>2999.11</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>3253.63</t>
+          <t>3294.67</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>3319.34</t>
+          <t>2457.51</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2523.90</t>
+          <t>2312.03</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>2521.21</t>
+          <t>2304.09</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>2425.27</t>
+          <t>2476.09</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>2432.62</t>
+          <t>2463.05</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>3746.24</t>
+          <t>3744.33</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3744.71</t>
+          <t>2787.63</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>3259.32</t>
+          <t>3307.10</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3350.96</t>
+          <t>2484.58</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>2548.06</t>
+          <t>2315.99</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2541.92</t>
+          <t>2311.16</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>2426.95</t>
+          <t>2484.49</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>2422.34</t>
+          <t>2479.70</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>3768.49</t>
+          <t>3758.36</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3762.44</t>
+          <t>2804.84</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>3270.94</t>
+          <t>3333.79</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>3367.94</t>
+          <t>2536.62</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>2568.03</t>
+          <t>2331.84</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>2563.52</t>
+          <t>2327.15</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>2434.79</t>
+          <t>2500.54</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>2432.67</t>
+          <t>2494.78</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3924.43</t>
+          <t>3875.05</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3889.56</t>
+          <t>2901.10</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>3365.82</t>
+          <t>3442.06</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>3489.20</t>
+          <t>2659.39</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2692.73</t>
+          <t>2438.52</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2685.34</t>
+          <t>2433.33</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>2542.26</t>
+          <t>2618.78</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>2537.74</t>
+          <t>2613.99</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>4862.20</t>
+          <t>4563.30</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>4598.44</t>
+          <t>3602.97</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>4274.30</t>
+          <t>4164.07</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>4151.10</t>
+          <t>3216.66</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>3188.01</t>
+          <t>2474.19</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>3179.46</t>
+          <t>2467.98</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>3243.79</t>
+          <t>3247.75</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>3256.18</t>
+          <t>3239.75</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3350.54</t>
+          <t>3302.31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3261.60</t>
+          <t>3095.35</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>434.68</t>
+          <t>497.80</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2999.43</t>
+          <t>3037.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2402.32</t>
+          <t>2505.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2398.59</t>
+          <t>2500.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2387.78</t>
+          <t>2355.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2375.80</t>
+          <t>2359.84</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3716.27</t>
+          <t>3826.53</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3672.44</t>
+          <t>3710.45</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3327.13</t>
+          <t>3321.21</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3265.41</t>
+          <t>3120.89</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2503.87</t>
+          <t>2416.92</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2499.09</t>
+          <t>2411.35</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2458.59</t>
+          <t>2459.80</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2455.18</t>
+          <t>2454.81</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3675.43</t>
+          <t>3696.55</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3590.15</t>
+          <t>3482.33</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3301.74</t>
+          <t>3263.26</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3231.31</t>
+          <t>3134.53</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2479.86</t>
+          <t>2389.86</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2474.52</t>
+          <t>2384.27</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2437.33</t>
+          <t>2424.24</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2428.37</t>
+          <t>2420.09</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3685.42</t>
+          <t>3717.52</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3613.72</t>
+          <t>3513.95</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>3306.68</t>
+          <t>3284.00</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>3227.79</t>
+          <t>3191.71</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2490.61</t>
+          <t>2538.95</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2485.27</t>
+          <t>2533.54</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2450.74</t>
+          <t>2471.10</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2440.34</t>
+          <t>2465.31</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>3692.02</t>
+          <t>3740.09</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3664.15</t>
+          <t>3767.96</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>3317.53</t>
+          <t>3304.92</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>3241.63</t>
+          <t>3228.71</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2483.23</t>
+          <t>2543.04</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>2478.58</t>
+          <t>2537.33</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>2465.68</t>
+          <t>2471.04</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>2463.78</t>
+          <t>2465.83</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3700.76</t>
+          <t>3756.39</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3678.48</t>
+          <t>3799.56</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>3327.42</t>
+          <t>3326.49</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>3251.40</t>
+          <t>3238.67</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>2490.47</t>
+          <t>2548.19</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>2485.91</t>
+          <t>2542.35</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>2477.07</t>
+          <t>2473.17</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>2472.47</t>
+          <t>2467.89</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>3702.51</t>
+          <t>3842.31</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3704.35</t>
+          <t>3696.71</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>3339.55</t>
+          <t>3344.33</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3265.84</t>
+          <t>3249.22</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>2498.31</t>
+          <t>2553.57</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2493.90</t>
+          <t>2548.27</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>2485.32</t>
+          <t>2479.03</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>2480.41</t>
+          <t>2474.23</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>3718.85</t>
+          <t>3865.49</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3724.06</t>
+          <t>3712.79</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>3366.30</t>
+          <t>3372.03</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>3302.48</t>
+          <t>3268.22</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>2514.81</t>
+          <t>2568.74</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>2510.28</t>
+          <t>2563.44</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>2501.00</t>
+          <t>2506.27</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>2497.57</t>
+          <t>2497.19</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3840.09</t>
+          <t>4002.90</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3833.10</t>
+          <t>3829.57</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>3490.28</t>
+          <t>3497.35</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>3407.73</t>
+          <t>3402.87</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2623.64</t>
+          <t>2674.56</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2618.73</t>
+          <t>2669.42</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>2614.92</t>
+          <t>2636.17</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>2610.70</t>
+          <t>2632.03</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>4680.86</t>
+          <t>4830.89</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>4587.99</t>
+          <t>4610.87</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>4327.85</t>
+          <t>4304.83</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>4078.27</t>
+          <t>4058.82</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>3214.89</t>
+          <t>3130.86</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>3205.59</t>
+          <t>3127.46</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>3327.00</t>
+          <t>3287.60</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>3321.14</t>
+          <t>3276.90</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3198.97</t>
+          <t>3061.32</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3232.16</t>
+          <t>3130.28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1095.68</t>
+          <t>273.41</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3025.64</t>
+          <t>2819.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2430.74</t>
+          <t>2391.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2427.65</t>
+          <t>2386.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2376.78</t>
+          <t>2183.86</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2376.42</t>
+          <t>2187.79</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3537.59</t>
+          <t>3738.40</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3658.51</t>
+          <t>3780.59</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3315.03</t>
+          <t>3102.87</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3334.80</t>
+          <t>3089.14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2499.99</t>
+          <t>2476.03</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2495.93</t>
+          <t>2470.27</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2414.69</t>
+          <t>2282.35</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2422.81</t>
+          <t>2281.48</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3494.00</t>
+          <t>3455.33</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3569.58</t>
+          <t>3503.83</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>3232.52</t>
+          <t>3075.80</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>3280.82</t>
+          <t>3066.56</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2445.80</t>
+          <t>2431.14</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2441.77</t>
+          <t>2425.14</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2350.77</t>
+          <t>2352.86</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2350.46</t>
+          <t>2348.00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>3533.13</t>
+          <t>3469.36</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3596.36</t>
+          <t>3518.72</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>3234.86</t>
+          <t>3044.41</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>3286.95</t>
+          <t>3083.22</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2462.50</t>
+          <t>2431.25</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2457.56</t>
+          <t>2341.77</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2346.34</t>
+          <t>2352.37</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2342.76</t>
+          <t>2346.17</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>3566.84</t>
+          <t>3488.41</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3591.77</t>
+          <t>3555.26</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>3239.08</t>
+          <t>3055.05</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>3281.96</t>
+          <t>3103.11</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2469.69</t>
+          <t>2352.89</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>2463.49</t>
+          <t>2347.43</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>2362.08</t>
+          <t>2358.47</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>2357.51</t>
+          <t>2352.15</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>3585.12</t>
+          <t>3508.89</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>3612.94</t>
+          <t>3567.94</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>3243.05</t>
+          <t>3071.13</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>3307.19</t>
+          <t>3113.42</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>2474.34</t>
+          <t>2361.48</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>2471.08</t>
+          <t>2356.13</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>2382.23</t>
+          <t>2364.80</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>2377.56</t>
+          <t>2358.53</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>3565.81</t>
+          <t>3534.19</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>3626.15</t>
+          <t>3582.22</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>3258.87</t>
+          <t>3087.82</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3315.22</t>
+          <t>3128.16</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>2481.22</t>
+          <t>2369.79</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2476.86</t>
+          <t>2364.26</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>2401.11</t>
+          <t>2371.10</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>2396.55</t>
+          <t>2365.43</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>3584.05</t>
+          <t>3554.23</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>3623.98</t>
+          <t>3605.33</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>3288.59</t>
+          <t>3111.53</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>3332.47</t>
+          <t>3154.25</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>2496.82</t>
+          <t>2388.48</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>2492.20</t>
+          <t>2382.82</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>2435.21</t>
+          <t>2303.82</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>2430.67</t>
+          <t>2298.49</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3694.94</t>
+          <t>3689.49</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3742.28</t>
+          <t>3745.40</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>3418.97</t>
+          <t>3231.40</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>3447.51</t>
+          <t>3282.32</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2614.03</t>
+          <t>2497.71</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2609.37</t>
+          <t>2492.27</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>2561.06</t>
+          <t>2421.32</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>2556.53</t>
+          <t>2415.90</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>4477.87</t>
+          <t>4505.07</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>4422.77</t>
+          <t>4523.58</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>4198.11</t>
+          <t>3962.15</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>4171.20</t>
+          <t>3921.62</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>3208.83</t>
+          <t>3039.00</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>3204.38</t>
+          <t>3026.11</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>3239.27</t>
+          <t>3037.22</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>3238.93</t>
+          <t>3028.75</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3177.85</t>
+          <t>2827.45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3289.56</t>
+          <t>2908.92</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>892.99</t>
+          <t>291.67</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3079.80</t>
+          <t>2660.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2429.03</t>
+          <t>2112.04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2425.68</t>
+          <t>2109.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2337.37</t>
+          <t>2037.75</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2352.85</t>
+          <t>2048.22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3490.39</t>
+          <t>3236.08</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3577.48</t>
+          <t>3311.83</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3302.57</t>
+          <t>2928.75</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3339.53</t>
+          <t>2917.87</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2533.46</t>
+          <t>2218.17</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2528.67</t>
+          <t>2214.03</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2418.52</t>
+          <t>2124.30</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2417.98</t>
+          <t>2125.88</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3487.54</t>
+          <t>3165.14</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3552.40</t>
+          <t>3241.22</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>3242.78</t>
+          <t>2842.73</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>3284.46</t>
+          <t>2893.06</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2474.13</t>
+          <t>2183.46</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2469.73</t>
+          <t>2179.44</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2363.82</t>
+          <t>2090.67</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2359.69</t>
+          <t>2087.65</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>3494.98</t>
+          <t>3178.93</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3555.10</t>
+          <t>3254.01</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>3252.82</t>
+          <t>2852.91</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>3281.75</t>
+          <t>2910.05</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2480.30</t>
+          <t>2191.58</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2475.59</t>
+          <t>2187.57</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>2355.06</t>
+          <t>2099.21</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2349.81</t>
+          <t>2095.17</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3507.72</t>
+          <t>3195.77</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3564.95</t>
+          <t>3305.07</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>3269.16</t>
+          <t>2872.18</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>3295.91</t>
+          <t>2929.20</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2497.69</t>
+          <t>2203.69</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2493.13</t>
+          <t>2199.60</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>2372.25</t>
+          <t>2111.59</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>2366.94</t>
+          <t>2107.37</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>3519.83</t>
+          <t>3210.82</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3581.75</t>
+          <t>3319.27</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>3284.49</t>
+          <t>2890.37</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>3310.07</t>
+          <t>2946.49</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>2506.07</t>
+          <t>2214.94</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>2501.55</t>
+          <t>2210.86</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>2388.36</t>
+          <t>2123.09</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>2383.06</t>
+          <t>2118.95</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>3538.31</t>
+          <t>3259.78</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3599.83</t>
+          <t>3333.36</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>3297.47</t>
+          <t>2907.82</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3323.98</t>
+          <t>2962.84</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2514.92</t>
+          <t>2226.26</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2510.42</t>
+          <t>2222.21</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>2403.86</t>
+          <t>2134.59</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>2398.93</t>
+          <t>2130.42</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>3560.70</t>
+          <t>3281.71</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3626.87</t>
+          <t>3355.26</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>3322.35</t>
+          <t>2932.17</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>3346.20</t>
+          <t>2986.81</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2532.62</t>
+          <t>2245.70</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2528.15</t>
+          <t>2241.61</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>2421.71</t>
+          <t>2154.15</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>2417.09</t>
+          <t>2149.94</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3687.11</t>
+          <t>3407.11</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3756.54</t>
+          <t>3482.60</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>3437.54</t>
+          <t>3048.15</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>3466.45</t>
+          <t>3112.78</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2642.38</t>
+          <t>2358.00</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2637.91</t>
+          <t>2353.90</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>2530.08</t>
+          <t>2265.56</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>2525.88</t>
+          <t>2261.37</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>4313.38</t>
+          <t>4055.64</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>4318.07</t>
+          <t>4116.96</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>4066.62</t>
+          <t>3696.51</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>4063.90</t>
+          <t>3705.47</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>3183.56</t>
+          <t>2864.63</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>3176.91</t>
+          <t>2853.26</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>3164.74</t>
+          <t>2836.24</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>3164.07</t>
+          <t>2830.63</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3100.88</t>
+          <t>2623.30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3181.30</t>
+          <t>2715.04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1073.43</t>
+          <t>538.58</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2926.38</t>
+          <t>2485.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2389.01</t>
+          <t>1968.01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2385.69</t>
+          <t>1964.32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2315.01</t>
+          <t>1885.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2312.89</t>
+          <t>1908.20</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3332.52</t>
+          <t>2907.54</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3422.82</t>
+          <t>2993.32</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3129.64</t>
+          <t>2764.98</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3158.24</t>
+          <t>2684.66</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2458.31</t>
+          <t>2043.50</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2453.53</t>
+          <t>2038.71</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2356.47</t>
+          <t>1942.43</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2352.49</t>
+          <t>1949.91</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3336.41</t>
+          <t>2845.58</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3426.71</t>
+          <t>2930.78</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>3061.03</t>
+          <t>2554.93</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>3113.80</t>
+          <t>2612.77</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2407.42</t>
+          <t>1984.06</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2402.71</t>
+          <t>1979.40</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2307.40</t>
+          <t>1886.23</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2302.91</t>
+          <t>1882.74</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>3341.10</t>
+          <t>2844.82</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>3430.79</t>
+          <t>2929.25</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>3063.21</t>
+          <t>2550.39</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>3121.57</t>
+          <t>2615.28</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2407.60</t>
+          <t>1982.47</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2402.91</t>
+          <t>1977.83</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>2308.21</t>
+          <t>1885.45</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2303.67</t>
+          <t>1881.12</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>3351.62</t>
+          <t>2850.52</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>3398.03</t>
+          <t>2929.08</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>3076.60</t>
+          <t>2558.67</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>3134.31</t>
+          <t>2623.17</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2414.40</t>
+          <t>1986.87</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>2409.72</t>
+          <t>1982.23</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>2315.44</t>
+          <t>1890.42</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>2310.91</t>
+          <t>1885.95</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>3362.17</t>
+          <t>2856.70</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>3410.29</t>
+          <t>2935.13</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>3089.45</t>
+          <t>2567.77</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>3146.55</t>
+          <t>2631.05</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>2421.51</t>
+          <t>1991.73</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>2416.85</t>
+          <t>1987.10</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>2322.94</t>
+          <t>1895.80</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>2318.43</t>
+          <t>1891.31</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>3333.45</t>
+          <t>2838.48</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>3422.42</t>
+          <t>2918.82</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>3107.93</t>
+          <t>2557.28</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3158.82</t>
+          <t>2618.53</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>2429.22</t>
+          <t>1981.17</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2424.58</t>
+          <t>1976.61</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>2331.00</t>
+          <t>1887.55</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>2326.50</t>
+          <t>1883.09</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>3353.59</t>
+          <t>2853.63</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>3442.18</t>
+          <t>2933.38</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>3128.29</t>
+          <t>2573.86</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>3178.88</t>
+          <t>2634.65</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>2445.51</t>
+          <t>1994.72</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>2440.90</t>
+          <t>1990.18</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>2347.60</t>
+          <t>1901.44</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>2343.12</t>
+          <t>1896.98</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>3464.60</t>
+          <t>2961.12</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>3554.48</t>
+          <t>3043.28</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>3234.83</t>
+          <t>2673.57</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>3291.32</t>
+          <t>2743.48</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>2551.27</t>
+          <t>2092.43</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>2546.65</t>
+          <t>2087.87</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>2452.67</t>
+          <t>1997.90</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>2448.17</t>
+          <t>1993.42</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>4034.57</t>
+          <t>3506.89</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>4109.11</t>
+          <t>3578.57</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>3740.54</t>
+          <t>3292.32</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>3774.64</t>
+          <t>3346.13</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>3036.10</t>
+          <t>2514.63</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>3029.09</t>
+          <t>2504.29</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2992.49</t>
+          <t>2475.03</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2989.58</t>
+          <t>2469.88</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3021.20</t>
+          <t>2431.15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3099.91</t>
+          <t>2495.07</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1419.41</t>
+          <t>581.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2864.61</t>
+          <t>2343.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2323.52</t>
+          <t>1808.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2320.42</t>
+          <t>1806.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2254.14</t>
+          <t>1756.74</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2254.99</t>
+          <t>1789.97</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3198.91</t>
+          <t>2572.01</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3286.65</t>
+          <t>2620.30</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3085.78</t>
+          <t>2564.88</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3090.32</t>
+          <t>2476.77</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2387.84</t>
+          <t>1839.41</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2383.31</t>
+          <t>1836.82</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2293.13</t>
+          <t>1774.18</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2290.27</t>
+          <t>1778.66</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3231.00</t>
+          <t>2559.49</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3310.26</t>
+          <t>2627.79</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2980.11</t>
+          <t>2373.18</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>3025.73</t>
+          <t>2409.26</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2323.14</t>
+          <t>1776.33</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2318.73</t>
+          <t>1775.06</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2230.52</t>
+          <t>1702.37</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2226.32</t>
+          <t>1702.94</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>3235.53</t>
+          <t>2545.93</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>3314.42</t>
+          <t>2611.83</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2980.90</t>
+          <t>2352.03</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>3031.17</t>
+          <t>2399.61</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2319.97</t>
+          <t>1777.74</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2315.59</t>
+          <t>1774.12</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>2232.06</t>
+          <t>1696.58</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2227.74</t>
+          <t>1695.60</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>3246.02</t>
+          <t>2542.35</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>3250.27</t>
+          <t>2517.39</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2994.00</t>
+          <t>2350.23</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>3050.43</t>
+          <t>2398.38</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2326.16</t>
+          <t>1780.33</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>2321.80</t>
+          <t>1776.71</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>2239.61</t>
+          <t>1697.57</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>2235.30</t>
+          <t>1696.33</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>3256.33</t>
+          <t>2540.71</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>3261.45</t>
+          <t>2517.42</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>3008.67</t>
+          <t>2351.05</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>3066.35</t>
+          <t>2398.54</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>2332.71</t>
+          <t>1783.60</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>2328.37</t>
+          <t>1779.97</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>2247.27</t>
+          <t>1699.55</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>2242.97</t>
+          <t>1698.23</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>3199.27</t>
+          <t>2455.34</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>3272.52</t>
+          <t>2518.56</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>3024.67</t>
+          <t>2353.23</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3081.27</t>
+          <t>2399.97</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>2339.87</t>
+          <t>1787.65</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2335.54</t>
+          <t>1784.01</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>2255.40</t>
+          <t>1702.50</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>2251.10</t>
+          <t>1701.13</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>3219.05</t>
+          <t>2464.80</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>3290.82</t>
+          <t>2527.63</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>3047.84</t>
+          <t>2363.13</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>3103.23</t>
+          <t>2409.62</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>2361.60</t>
+          <t>1798.90</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>2354.57</t>
+          <t>1795.27</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>2271.72</t>
+          <t>1712.62</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>2267.45</t>
+          <t>1711.22</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>3323.98</t>
+          <t>2562.51</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>3396.09</t>
+          <t>2627.00</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>3163.10</t>
+          <t>2455.35</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>3224.26</t>
+          <t>2510.10</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>2463.77</t>
+          <t>1888.91</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>2459.45</t>
+          <t>1885.31</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>2375.96</t>
+          <t>1798.20</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>2371.66</t>
+          <t>1796.87</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3876.36</t>
+          <t>3133.30</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3934.20</t>
+          <t>3182.25</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>3613.04</t>
+          <t>2926.65</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>3641.04</t>
+          <t>2934.34</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2937.91</t>
+          <t>2307.60</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2931.54</t>
+          <t>2301.48</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2909.79</t>
+          <t>2286.25</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2907.37</t>
+          <t>2284.73</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3007.44</t>
+          <t>2693.00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3064.48</t>
+          <t>2732.52</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1626.95</t>
+          <t>866.75</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2789.02</t>
+          <t>2495.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2167.45</t>
+          <t>1936.68</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2161.25</t>
+          <t>1931.93</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2135.96</t>
+          <t>1891.87</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2145.77</t>
+          <t>1924.44</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3008.31</t>
+          <t>2807.85</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3071.32</t>
+          <t>2837.57</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3062.46</t>
+          <t>2693.78</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2891.82</t>
+          <t>2589.93</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2149.54</t>
+          <t>1959.12</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2133.90</t>
+          <t>1953.90</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2180.08</t>
+          <t>1883.48</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2178.90</t>
+          <t>1910.53</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>3268.32</t>
+          <t>2725.92</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>3274.89</t>
+          <t>2758.14</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2960.16</t>
+          <t>2447.87</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2843.83</t>
+          <t>2426.62</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2125.14</t>
+          <t>1862.98</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2116.72</t>
+          <t>1857.83</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2139.43</t>
+          <t>1782.36</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2135.10</t>
+          <t>1781.08</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>3296.30</t>
+          <t>2705.47</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3276.81</t>
+          <t>2737.99</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2961.42</t>
+          <t>2419.13</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2880.15</t>
+          <t>2409.82</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>2161.02</t>
+          <t>1846.93</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>2152.64</t>
+          <t>1841.77</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>2150.29</t>
+          <t>1765.47</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2145.39</t>
+          <t>1761.37</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>3311.31</t>
+          <t>2696.44</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>3044.66</t>
+          <t>2672.41</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2980.06</t>
+          <t>2411.97</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2927.42</t>
+          <t>2402.52</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2180.12</t>
+          <t>1841.03</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>2174.86</t>
+          <t>1835.90</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>2166.19</t>
+          <t>1758.41</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>2161.27</t>
+          <t>1753.53</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>3324.40</t>
+          <t>2690.31</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>3057.46</t>
+          <t>2668.00</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>3001.29</t>
+          <t>2380.45</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2959.51</t>
+          <t>2397.78</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>2189.45</t>
+          <t>1838.78</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>2180.15</t>
+          <t>1833.64</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>2181.98</t>
+          <t>1754.77</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>2177.04</t>
+          <t>1749.72</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>3009.53</t>
+          <t>2633.90</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>3069.00</t>
+          <t>2665.42</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>3021.59</t>
+          <t>2378.21</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2970.39</t>
+          <t>2395.09</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>2198.24</t>
+          <t>1838.98</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2193.00</t>
+          <t>1833.83</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>2198.34</t>
+          <t>1753.74</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>2192.79</t>
+          <t>1748.71</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>3032.76</t>
+          <t>2639.99</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>3088.49</t>
+          <t>2671.48</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>3046.90</t>
+          <t>2384.45</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2988.76</t>
+          <t>2400.99</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>2215.44</t>
+          <t>1847.55</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>2210.25</t>
+          <t>1842.36</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>2222.58</t>
+          <t>1760.27</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>2217.05</t>
+          <t>1755.22</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>3157.56</t>
+          <t>2738.92</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>3206.07</t>
+          <t>2774.31</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>3145.99</t>
+          <t>2506.18</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>3103.08</t>
+          <t>2499.19</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>2317.90</t>
+          <t>1939.69</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>2312.73</t>
+          <t>1934.31</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>2333.48</t>
+          <t>1848.60</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>2326.78</t>
+          <t>1843.41</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3814.10</t>
+          <t>3359.45</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3822.40</t>
+          <t>3376.15</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>3502.92</t>
+          <t>3009.66</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>3398.84</t>
+          <t>2984.05</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2789.86</t>
+          <t>2346.02</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2768.95</t>
+          <t>2334.50</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2903.76</t>
+          <t>2338.65</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2904.13</t>
+          <t>2334.97</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3188.04</t>
+          <t>2740.31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3277.25</t>
+          <t>2692.66</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1411.56</t>
+          <t>948.88</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3017.66</t>
+          <t>2495.78</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2445.10</t>
+          <t>1913.65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2441.98</t>
+          <t>1911.19</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2345.50</t>
+          <t>1959.89</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2349.95</t>
+          <t>1995.79</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3515.73</t>
+          <t>2808.39</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3594.36</t>
+          <t>2769.92</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3226.32</t>
+          <t>2756.72</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3244.59</t>
+          <t>2562.09</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2506.01</t>
+          <t>1916.15</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2501.40</t>
+          <t>1912.78</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2370.64</t>
+          <t>1957.25</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2369.32</t>
+          <t>1961.84</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>3413.86</t>
+          <t>2733.51</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3524.31</t>
+          <t>2673.56</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>3135.64</t>
+          <t>2488.40</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>3201.74</t>
+          <t>2418.38</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2456.51</t>
+          <t>1779.20</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2451.96</t>
+          <t>1777.11</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2323.22</t>
+          <t>1810.24</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2318.97</t>
+          <t>1808.93</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>3425.64</t>
+          <t>2709.02</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3535.89</t>
+          <t>2651.24</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>3147.34</t>
+          <t>2459.89</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>3213.16</t>
+          <t>2399.42</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2458.97</t>
+          <t>1762.59</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2454.46</t>
+          <t>1760.50</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>2333.84</t>
+          <t>1804.48</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2329.19</t>
+          <t>1802.51</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>3444.45</t>
+          <t>2696.97</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3592.10</t>
+          <t>2599.59</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>3166.40</t>
+          <t>2455.86</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>3230.98</t>
+          <t>2391.46</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2469.16</t>
+          <t>1756.21</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2464.99</t>
+          <t>1753.78</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>2344.40</t>
+          <t>1806.83</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>2339.73</t>
+          <t>1805.32</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3459.80</t>
+          <t>2688.38</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3610.42</t>
+          <t>2593.97</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>3184.24</t>
+          <t>2456.35</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>3248.13</t>
+          <t>2386.28</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2479.61</t>
+          <t>1753.44</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2475.11</t>
+          <t>1750.27</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>2354.82</t>
+          <t>1811.59</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>2350.16</t>
+          <t>1809.62</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>3536.28</t>
+          <t>2627.80</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3628.09</t>
+          <t>2590.54</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>3201.37</t>
+          <t>2458.35</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3265.15</t>
+          <t>2383.28</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>2490.48</t>
+          <t>1752.47</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2485.95</t>
+          <t>1749.31</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>2365.59</t>
+          <t>1815.72</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>2360.91</t>
+          <t>1813.74</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>3563.35</t>
+          <t>2636.54</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>3654.68</t>
+          <t>2595.75</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>3207.67</t>
+          <t>2467.63</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>3290.07</t>
+          <t>2389.09</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>2510.56</t>
+          <t>1760.04</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>2506.07</t>
+          <t>1756.90</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>2401.23</t>
+          <t>1827.06</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>2396.84</t>
+          <t>1825.08</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>3692.35</t>
+          <t>2726.43</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>3773.30</t>
+          <t>2693.38</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>3320.03</t>
+          <t>2553.01</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>3412.04</t>
+          <t>2490.07</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>2624.72</t>
+          <t>1852.19</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>2620.18</t>
+          <t>1849.28</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>2509.88</t>
+          <t>1911.29</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>2505.46</t>
+          <t>1910.62</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>4292.36</t>
+          <t>3367.33</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>4345.88</t>
+          <t>3261.68</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>4000.57</t>
+          <t>3089.45</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>4021.07</t>
+          <t>2934.35</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>3136.94</t>
+          <t>2326.39</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>3130.30</t>
+          <t>2318.10</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>3076.83</t>
+          <t>2423.99</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>3074.05</t>
+          <t>2420.13</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3297.32</t>
+          <t>3261.44</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3291.89</t>
+          <t>3031.47</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1444.72</t>
+          <t>1101.61</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3077.39</t>
+          <t>2753.60</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2447.29</t>
+          <t>2133.05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2444.04</t>
+          <t>2131.08</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2429.01</t>
+          <t>2336.69</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2426.79</t>
+          <t>2347.75</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3608.67</t>
+          <t>3529.45</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3648.97</t>
+          <t>3272.24</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3388.77</t>
+          <t>3252.06</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3272.66</t>
+          <t>2923.76</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2545.67</t>
+          <t>2174.93</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2540.52</t>
+          <t>2174.02</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2481.76</t>
+          <t>2390.55</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2478.63</t>
+          <t>2391.57</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3584.16</t>
+          <t>3437.95</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3558.46</t>
+          <t>3198.34</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>3326.00</t>
+          <t>3093.85</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>3241.92</t>
+          <t>2801.86</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2485.34</t>
+          <t>2100.58</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2480.79</t>
+          <t>2095.50</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2453.72</t>
+          <t>2291.59</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2444.46</t>
+          <t>2300.87</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3594.96</t>
+          <t>3440.90</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3567.09</t>
+          <t>3202.95</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>3341.33</t>
+          <t>3077.62</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>3256.75</t>
+          <t>2795.60</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2446.08</t>
+          <t>2118.27</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2446.22</t>
+          <t>2110.80</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2451.25</t>
+          <t>2286.22</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2446.56</t>
+          <t>2282.97</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3606.28</t>
+          <t>3450.48</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3599.29</t>
+          <t>3230.39</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3368.40</t>
+          <t>3043.25</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>3272.87</t>
+          <t>2814.91</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2455.42</t>
+          <t>2129.23</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2454.26</t>
+          <t>2125.60</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2461.04</t>
+          <t>2260.41</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2457.37</t>
+          <t>2256.91</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3620.75</t>
+          <t>3458.30</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3602.28</t>
+          <t>3238.65</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>3382.05</t>
+          <t>3047.86</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>3290.06</t>
+          <t>2831.24</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2487.09</t>
+          <t>2146.19</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2482.36</t>
+          <t>2142.83</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2472.61</t>
+          <t>2233.34</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2468.83</t>
+          <t>2227.07</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3616.23</t>
+          <t>3489.30</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3615.15</t>
+          <t>3248.00</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>3397.81</t>
+          <t>3057.14</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3306.47</t>
+          <t>2847.21</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2496.44</t>
+          <t>2157.60</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2491.73</t>
+          <t>2153.58</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2484.09</t>
+          <t>2241.60</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2480.71</t>
+          <t>2237.18</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3641.59</t>
+          <t>3506.41</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3646.22</t>
+          <t>3265.26</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>3423.96</t>
+          <t>3075.33</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>3330.12</t>
+          <t>2877.71</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2514.27</t>
+          <t>2175.46</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2509.60</t>
+          <t>2170.55</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>2514.59</t>
+          <t>2258.83</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>2501.98</t>
+          <t>2253.60</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3770.58</t>
+          <t>3638.88</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3784.31</t>
+          <t>3387.00</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>3540.89</t>
+          <t>3193.56</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>3439.93</t>
+          <t>2998.63</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2636.62</t>
+          <t>2278.17</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2631.86</t>
+          <t>2274.89</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2624.68</t>
+          <t>2378.15</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2620.99</t>
+          <t>2372.96</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4511.66</t>
+          <t>4492.39</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>4396.58</t>
+          <t>4137.96</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>4307.36</t>
+          <t>3993.01</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>4075.20</t>
+          <t>3609.45</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>3180.13</t>
+          <t>2780.44</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>3172.63</t>
+          <t>2765.89</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>3299.21</t>
+          <t>3049.35</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>3298.18</t>
+          <t>3045.29</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3347.25</t>
+          <t>3223.41</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3289.75</t>
+          <t>2999.80</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1003.80</t>
+          <t>873.14</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3026.31</t>
+          <t>2704.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2451.78</t>
+          <t>2116.43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2448.52</t>
+          <t>2113.12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2484.72</t>
+          <t>2399.41</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2491.57</t>
+          <t>2390.49</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3792.48</t>
+          <t>3699.14</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3695.91</t>
+          <t>3356.66</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3416.71</t>
+          <t>3254.34</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3271.99</t>
+          <t>2864.90</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2559.26</t>
+          <t>2200.04</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2557.16</t>
+          <t>2191.92</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2545.95</t>
+          <t>2456.99</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2539.45</t>
+          <t>2454.89</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3692.09</t>
+          <t>3586.53</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3589.23</t>
+          <t>3289.65</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>3344.02</t>
+          <t>3215.18</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>3222.56</t>
+          <t>2856.48</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2485.55</t>
+          <t>2253.30</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2481.04</t>
+          <t>2243.09</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2491.42</t>
+          <t>2415.72</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2487.87</t>
+          <t>2415.86</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3711.20</t>
+          <t>3601.46</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3606.01</t>
+          <t>3353.88</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>3349.59</t>
+          <t>3242.37</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>3233.37</t>
+          <t>2885.09</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2473.70</t>
+          <t>2284.47</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2469.29</t>
+          <t>2279.97</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2488.96</t>
+          <t>2424.70</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2484.32</t>
+          <t>2422.91</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3735.50</t>
+          <t>3617.69</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3687.40</t>
+          <t>3430.32</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>3364.25</t>
+          <t>3263.85</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>3247.02</t>
+          <t>2987.60</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2492.70</t>
+          <t>2319.22</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2487.78</t>
+          <t>2293.76</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2494.64</t>
+          <t>2423.76</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2490.01</t>
+          <t>2421.55</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3754.34</t>
+          <t>3630.63</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3700.34</t>
+          <t>3443.93</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>3376.79</t>
+          <t>3284.12</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>3269.83</t>
+          <t>3045.40</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2486.47</t>
+          <t>2333.98</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2481.98</t>
+          <t>2330.56</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2504.29</t>
+          <t>2425.49</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2499.74</t>
+          <t>2422.67</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3797.79</t>
+          <t>3690.48</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3713.03</t>
+          <t>3446.67</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>3395.24</t>
+          <t>3309.73</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3291.38</t>
+          <t>3067.22</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2512.13</t>
+          <t>2342.31</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2507.77</t>
+          <t>2339.18</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2515.59</t>
+          <t>2421.56</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2511.17</t>
+          <t>2418.96</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3820.54</t>
+          <t>3710.57</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3736.40</t>
+          <t>3465.92</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>3417.27</t>
+          <t>3328.13</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>3340.07</t>
+          <t>3092.71</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2529.66</t>
+          <t>2359.19</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2525.27</t>
+          <t>2356.01</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2529.19</t>
+          <t>2425.26</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2530.30</t>
+          <t>2422.27</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3945.91</t>
+          <t>3835.74</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3855.28</t>
+          <t>3589.81</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>3570.35</t>
+          <t>3419.88</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>3465.80</t>
+          <t>3231.58</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2634.23</t>
+          <t>2464.48</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2631.90</t>
+          <t>2461.01</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2643.07</t>
+          <t>2550.78</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2641.43</t>
+          <t>2545.85</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4807.42</t>
+          <t>4714.23</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>4484.58</t>
+          <t>4369.11</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>4425.14</t>
+          <t>4280.47</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>4141.21</t>
+          <t>3881.74</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>3214.76</t>
+          <t>2999.25</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>3209.47</t>
+          <t>2985.29</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>3429.83</t>
+          <t>3240.93</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>3424.75</t>
+          <t>3236.39</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3340.29</t>
+          <t>3312.67</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3206.24</t>
+          <t>2962.20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>545.52</t>
+          <t>609.93</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2966.15</t>
+          <t>2749.97</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2406.18</t>
+          <t>2232.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2404.07</t>
+          <t>2228.98</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2459.32</t>
+          <t>2448.10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2459.23</t>
+          <t>2451.86</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3669.47</t>
+          <t>3876.45</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3595.20</t>
+          <t>3220.46</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>3381.41</t>
+          <t>3314.98</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3229.02</t>
+          <t>2815.04</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2482.16</t>
+          <t>2298.36</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2479.02</t>
+          <t>2294.64</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2531.61</t>
+          <t>2543.27</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2530.85</t>
+          <t>2529.83</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3628.43</t>
+          <t>3674.21</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3514.93</t>
+          <t>3114.45</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>3320.41</t>
+          <t>3262.64</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>3180.52</t>
+          <t>2790.58</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2437.66</t>
+          <t>2130.64</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2432.84</t>
+          <t>2126.66</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2487.30</t>
+          <t>2486.27</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2483.83</t>
+          <t>2484.72</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3634.39</t>
+          <t>3668.10</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3516.24</t>
+          <t>3127.28</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>3326.81</t>
+          <t>3296.96</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>3186.07</t>
+          <t>2807.51</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2453.55</t>
+          <t>2144.97</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2448.71</t>
+          <t>2139.26</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2487.75</t>
+          <t>2491.11</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2483.18</t>
+          <t>2483.69</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3644.20</t>
+          <t>3657.39</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3537.54</t>
+          <t>3206.95</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>3340.19</t>
+          <t>3263.55</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>3200.39</t>
+          <t>2829.28</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2468.74</t>
+          <t>2513.36</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2464.20</t>
+          <t>2510.84</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2495.33</t>
+          <t>2531.04</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2491.48</t>
+          <t>2534.66</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3647.49</t>
+          <t>3614.45</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3558.03</t>
+          <t>3708.25</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>3353.70</t>
+          <t>3278.99</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>3219.82</t>
+          <t>2851.48</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2455.41</t>
+          <t>2513.14</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2454.35</t>
+          <t>2512.76</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2500.91</t>
+          <t>2499.70</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2497.09</t>
+          <t>2495.94</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3649.73</t>
+          <t>3694.42</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3570.33</t>
+          <t>3713.38</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>3364.49</t>
+          <t>3294.16</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3237.87</t>
+          <t>3280.47</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2459.93</t>
+          <t>2520.75</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2456.72</t>
+          <t>2517.93</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2507.73</t>
+          <t>2505.85</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2503.65</t>
+          <t>2502.73</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3662.74</t>
+          <t>3714.04</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3589.15</t>
+          <t>3732.08</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>3380.96</t>
+          <t>3316.08</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>3262.10</t>
+          <t>3297.50</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2476.70</t>
+          <t>2538.38</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2473.39</t>
+          <t>2535.38</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2522.39</t>
+          <t>2522.46</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2519.70</t>
+          <t>2519.45</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3762.15</t>
+          <t>3828.43</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3703.78</t>
+          <t>3862.34</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>3488.47</t>
+          <t>3423.19</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>3388.46</t>
+          <t>3429.46</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2578.54</t>
+          <t>2661.29</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2576.04</t>
+          <t>2658.31</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2629.82</t>
+          <t>2643.00</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2626.24</t>
+          <t>2639.76</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4595.62</t>
+          <t>4492.15</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>4365.09</t>
+          <t>4031.51</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>4234.79</t>
+          <t>4091.23</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>4002.85</t>
+          <t>3644.85</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>3153.66</t>
+          <t>2789.46</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>3147.24</t>
+          <t>2783.94</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>3339.95</t>
+          <t>3172.76</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>3340.64</t>
+          <t>3169.77</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3007.44</t>
+          <t>2431.15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3064.48</t>
+          <t>2495.07</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>434.68</t>
+          <t>273.41</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2789.02</t>
+          <t>2343.76</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2167.45</t>
+          <t>1808.36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2161.25</t>
+          <t>1806.45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2135.96</t>
+          <t>1756.74</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2145.77</t>
+          <t>1789.97</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3008.31</t>
+          <t>2572.01</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3071.32</t>
+          <t>2620.30</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3062.46</t>
+          <t>2564.88</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2891.82</t>
+          <t>2476.77</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2149.54</t>
+          <t>1839.41</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2133.90</t>
+          <t>1836.82</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2180.08</t>
+          <t>1774.18</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2178.90</t>
+          <t>1778.66</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3231.00</t>
+          <t>2559.49</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>3274.89</t>
+          <t>2627.79</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2960.16</t>
+          <t>2373.18</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2843.83</t>
+          <t>2409.26</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>2125.14</t>
+          <t>1776.33</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2116.72</t>
+          <t>1775.06</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2139.43</t>
+          <t>1702.37</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2135.10</t>
+          <t>1702.94</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>3235.53</t>
+          <t>2545.93</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>3276.81</t>
+          <t>2611.83</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2961.42</t>
+          <t>2352.03</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2880.15</t>
+          <t>2399.42</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>2161.02</t>
+          <t>1762.59</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>2152.64</t>
+          <t>1760.50</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>2150.29</t>
+          <t>1696.58</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2145.39</t>
+          <t>1695.60</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>3246.02</t>
+          <t>2542.35</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>3044.66</t>
+          <t>2517.39</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2980.06</t>
+          <t>2350.23</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2927.42</t>
+          <t>2391.46</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2180.12</t>
+          <t>1756.21</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>2174.86</t>
+          <t>1753.78</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>2166.19</t>
+          <t>1697.57</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>2161.27</t>
+          <t>1696.33</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>3256.33</t>
+          <t>2540.71</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>3057.46</t>
+          <t>2517.42</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>3001.29</t>
+          <t>2351.05</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2959.51</t>
+          <t>2386.28</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>2189.45</t>
+          <t>1753.44</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>2180.15</t>
+          <t>1750.27</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>2181.98</t>
+          <t>1699.55</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>2177.04</t>
+          <t>1698.23</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>3009.53</t>
+          <t>2455.34</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>3069.00</t>
+          <t>2518.56</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>3021.59</t>
+          <t>2353.23</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2970.39</t>
+          <t>2383.28</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>2198.24</t>
+          <t>1752.47</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2193.00</t>
+          <t>1749.31</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>2198.34</t>
+          <t>1702.50</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>2192.79</t>
+          <t>1701.13</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>3032.76</t>
+          <t>2464.80</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>3088.49</t>
+          <t>2527.63</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>3046.90</t>
+          <t>2363.13</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2988.76</t>
+          <t>2389.09</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>2215.44</t>
+          <t>1760.04</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>2210.25</t>
+          <t>1756.90</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>2222.58</t>
+          <t>1712.62</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>2217.05</t>
+          <t>1711.22</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>3157.56</t>
+          <t>2562.51</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>3206.07</t>
+          <t>2627.00</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>3145.99</t>
+          <t>2455.35</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>3103.08</t>
+          <t>2490.07</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>2317.90</t>
+          <t>1852.19</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>2312.73</t>
+          <t>1849.28</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>2333.48</t>
+          <t>1798.20</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>2326.78</t>
+          <t>1796.87</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3814.10</t>
+          <t>3133.30</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3822.40</t>
+          <t>3182.25</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>3502.92</t>
+          <t>2926.65</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>3398.84</t>
+          <t>2934.34</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2789.86</t>
+          <t>2307.60</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2768.95</t>
+          <t>2301.48</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2903.76</t>
+          <t>2286.25</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2904.13</t>
+          <t>2284.73</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3350.54</t>
+          <t>3363.16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3291.89</t>
+          <t>3130.28</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1626.95</t>
+          <t>1101.61</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3079.80</t>
+          <t>3037.80</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2451.78</t>
+          <t>2505.39</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2448.52</t>
+          <t>2500.62</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2484.72</t>
+          <t>2498.32</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2491.57</t>
+          <t>2489.26</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3795.48</t>
+          <t>3876.45</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3728.22</t>
+          <t>3780.59</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3416.71</t>
+          <t>3375.32</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3339.53</t>
+          <t>3120.89</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2559.26</t>
+          <t>2476.03</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2557.16</t>
+          <t>2470.27</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2545.95</t>
+          <t>2558.14</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2539.45</t>
+          <t>2552.85</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3692.09</t>
+          <t>3696.55</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3590.15</t>
+          <t>3503.83</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3344.02</t>
+          <t>3330.44</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>3284.46</t>
+          <t>3134.53</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2485.55</t>
+          <t>2431.14</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2481.04</t>
+          <t>2425.14</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2491.42</t>
+          <t>2517.31</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2487.87</t>
+          <t>2510.99</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3711.20</t>
+          <t>3717.52</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3613.72</t>
+          <t>3518.72</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>3349.59</t>
+          <t>3336.69</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>3286.95</t>
+          <t>3191.71</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2490.61</t>
+          <t>2538.95</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2485.27</t>
+          <t>2533.54</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2488.96</t>
+          <t>2528.80</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2484.32</t>
+          <t>2525.00</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3735.50</t>
+          <t>3740.09</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3736.17</t>
+          <t>3767.96</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>3368.40</t>
+          <t>3304.92</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>3295.91</t>
+          <t>3228.71</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2497.69</t>
+          <t>2543.04</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2493.13</t>
+          <t>2537.33</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2495.33</t>
+          <t>2532.21</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2491.48</t>
+          <t>2535.32</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3754.34</t>
+          <t>3756.39</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3737.46</t>
+          <t>3799.56</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>3382.05</t>
+          <t>3326.49</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>3319.34</t>
+          <t>3238.67</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2523.90</t>
+          <t>2548.19</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2521.21</t>
+          <t>2542.35</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2504.29</t>
+          <t>2499.70</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2499.74</t>
+          <t>2495.94</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3797.79</t>
+          <t>3842.31</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3744.71</t>
+          <t>3713.38</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>3397.81</t>
+          <t>3344.33</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3350.96</t>
+          <t>3280.47</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2548.06</t>
+          <t>2553.57</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2541.92</t>
+          <t>2548.27</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2515.59</t>
+          <t>2505.85</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2511.17</t>
+          <t>2502.73</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3820.54</t>
+          <t>3865.49</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3762.44</t>
+          <t>3732.08</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>3423.96</t>
+          <t>3372.03</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>3367.94</t>
+          <t>3297.50</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2568.03</t>
+          <t>2568.74</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2563.52</t>
+          <t>2563.44</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2529.19</t>
+          <t>2522.46</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2530.30</t>
+          <t>2519.45</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3945.91</t>
+          <t>4002.90</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3889.56</t>
+          <t>3862.34</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3570.35</t>
+          <t>3497.35</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>3489.20</t>
+          <t>3429.46</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2692.73</t>
+          <t>2674.56</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2685.34</t>
+          <t>2669.42</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2643.07</t>
+          <t>2643.00</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2641.43</t>
+          <t>2639.76</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4862.20</t>
+          <t>4830.89</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4598.44</t>
+          <t>4610.87</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>4425.14</t>
+          <t>4304.83</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>4171.20</t>
+          <t>4058.82</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>3214.89</t>
+          <t>3130.86</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>3209.47</t>
+          <t>3127.46</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>3429.83</t>
+          <t>3287.60</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>3424.75</t>
+          <t>3276.90</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
